--- a/2.1 Coded Data/Where.xlsx
+++ b/2.1 Coded Data/Where.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\attack_surface_analysis\2.1 Coded Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5427CE7-27DA-486C-AE74-6E33DACB2DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8056D8-0228-4291-8EBB-489F818E7021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{97AD9E94-DEE6-49C9-A988-B624ACE654E4}"/>
   </bookViews>
@@ -4539,7 +4539,7 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4560,7 +4560,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4626,13 +4626,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4960,18 +4960,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C676D121-78ED-442D-A103-A4BBDB2A08DF}">
   <dimension ref="A1:F441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="105" style="2" customWidth="1"/>
-    <col min="3" max="3" width="33.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="45.109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" style="2"/>
-    <col min="6" max="6" width="16.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" style="2" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
@@ -5036,32 +5036,32 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>458</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>740</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>741</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>742</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" ht="39.6">
       <c r="A6" s="1" t="s">
@@ -5124,32 +5124,32 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>752</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>753</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>754</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="4"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" ht="52.8">
       <c r="A11" s="1" t="s">
@@ -5312,32 +5312,32 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>471</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>770</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="4" t="s">
         <v>771</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="4" t="s">
         <v>772</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="4" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" ht="26.4">
       <c r="A21" s="1" t="s">
@@ -5500,32 +5500,32 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>786</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="4" t="s">
         <v>788</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="4" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="4"/>
+      <c r="A30" s="5"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:6" ht="39.6">
       <c r="A31" s="1" t="s">
@@ -5848,60 +5848,60 @@
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="4" t="s">
         <v>821</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="4" t="s">
         <v>820</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="4" t="s">
         <v>748</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="4"/>
+      <c r="A48" s="5"/>
       <c r="B48" s="7"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="4" t="s">
         <v>774</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="4" t="s">
         <v>822</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="4" t="s">
         <v>806</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="4"/>
+      <c r="A50" s="5"/>
       <c r="B50" s="7"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
     </row>
     <row r="51" spans="1:6" ht="39.6">
       <c r="A51" s="1" t="s">
@@ -5984,32 +5984,32 @@
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="4" t="s">
         <v>746</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="4" t="s">
         <v>831</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="4" t="s">
         <v>759</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F55" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="4"/>
+      <c r="A56" s="5"/>
       <c r="B56" s="7"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
     </row>
     <row r="57" spans="1:6" ht="39.6">
       <c r="A57" s="1" t="s">
@@ -6092,32 +6092,32 @@
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="4" t="s">
         <v>844</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="4" t="s">
         <v>845</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="4" t="s">
         <v>759</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="F61" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="4"/>
+      <c r="A62" s="5"/>
       <c r="B62" s="7"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
     </row>
     <row r="63" spans="1:6" ht="52.8">
       <c r="A63" s="1" t="s">
@@ -6180,34 +6180,34 @@
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="4" t="s">
         <v>512</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>849</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="4" t="s">
         <v>850</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E66" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="F66" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
       <c r="C67" s="7"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-    </row>
-    <row r="68" spans="1:6" ht="52.8">
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+    </row>
+    <row r="68" spans="1:6" ht="39.6">
       <c r="A68" s="1" t="s">
         <v>84</v>
       </c>
@@ -6228,32 +6228,32 @@
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="4" t="s">
         <v>514</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>854</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="4" t="s">
         <v>818</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E69" s="4" t="s">
         <v>855</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="F69" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
       <c r="C70" s="7"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
     </row>
     <row r="71" spans="1:6" ht="66">
       <c r="A71" s="1" t="s">
@@ -6295,7 +6295,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="66">
+    <row r="73" spans="1:6" ht="39.6">
       <c r="A73" s="1" t="s">
         <v>90</v>
       </c>
@@ -6336,62 +6336,62 @@
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="4" t="s">
         <v>519</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>866</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="4" t="s">
         <v>867</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="4" t="s">
         <v>759</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="F75" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
       <c r="C76" s="7"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="4" t="s">
         <v>520</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>868</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="4" t="s">
         <v>869</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E77" s="4" t="s">
         <v>870</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="F77" s="4" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
       <c r="C78" s="7"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-    </row>
-    <row r="79" spans="1:6" ht="79.2">
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+    </row>
+    <row r="79" spans="1:6" ht="66">
       <c r="A79" s="1" t="s">
         <v>96</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="39.6">
+    <row r="80" spans="1:6" ht="26.4">
       <c r="A80" s="1" t="s">
         <v>97</v>
       </c>
@@ -6432,88 +6432,88 @@
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="4" t="s">
         <v>523</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>879</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="4" t="s">
         <v>880</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E81" s="4" t="s">
         <v>881</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="F81" s="4" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
       <c r="C82" s="7"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="4" t="s">
         <v>524</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>883</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="4" t="s">
         <v>884</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E83" s="4" t="s">
         <v>885</v>
       </c>
-      <c r="F83" s="3" t="s">
+      <c r="F83" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
       <c r="C84" s="7"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="4" t="s">
         <v>525</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>886</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="4" t="s">
         <v>887</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E85" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="F85" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
       <c r="C86" s="7"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
     </row>
     <row r="87" spans="1:6" ht="26.4">
       <c r="A87" s="1" t="s">
@@ -6535,7 +6535,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="39.6">
+    <row r="88" spans="1:6" ht="26.4">
       <c r="A88" s="1" t="s">
         <v>103</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="92.4">
+    <row r="91" spans="1:6" ht="66">
       <c r="A91" s="1" t="s">
         <v>108</v>
       </c>
@@ -6616,32 +6616,32 @@
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="4" t="s">
         <v>531</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>901</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="4" t="s">
         <v>902</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E92" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="F92" s="3" t="s">
+      <c r="F92" s="4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
       <c r="C93" s="7"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
     </row>
     <row r="94" spans="1:6" ht="66">
       <c r="A94" s="1" t="s">
@@ -6664,32 +6664,32 @@
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="4" t="s">
         <v>533</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>906</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D95" s="4" t="s">
         <v>783</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E95" s="4" t="s">
         <v>742</v>
       </c>
-      <c r="F95" s="3" t="s">
+      <c r="F95" s="4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
       <c r="C96" s="7"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
     </row>
     <row r="97" spans="1:6" ht="39.6">
       <c r="A97" s="1" t="s">
@@ -6732,32 +6732,32 @@
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="4" t="s">
         <v>536</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>910</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="4" t="s">
         <v>911</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="E99" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="F99" s="3" t="s">
+      <c r="F99" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
       <c r="C100" s="7"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
     </row>
     <row r="101" spans="1:6" ht="26.4">
       <c r="A101" s="1" t="s">
@@ -6860,32 +6860,32 @@
       </c>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="4" t="s">
         <v>125</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="4" t="s">
         <v>921</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="D106" s="4" t="s">
         <v>922</v>
       </c>
-      <c r="E106" s="3" t="s">
+      <c r="E106" s="4" t="s">
         <v>915</v>
       </c>
-      <c r="F106" s="3" t="s">
+      <c r="F106" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="4"/>
+      <c r="A107" s="5"/>
       <c r="B107" s="7"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
     </row>
     <row r="108" spans="1:6" ht="26.4">
       <c r="A108" s="1" t="s">
@@ -7047,7 +7047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="66">
+    <row r="116" spans="1:6" ht="52.8">
       <c r="A116" s="1" t="s">
         <v>134</v>
       </c>
@@ -7208,32 +7208,32 @@
       </c>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="3" t="s">
+      <c r="A124" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="4" t="s">
         <v>559</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>938</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D124" s="4" t="s">
         <v>939</v>
       </c>
-      <c r="E124" s="3" t="s">
+      <c r="E124" s="4" t="s">
         <v>940</v>
       </c>
-      <c r="F124" s="3" t="s">
+      <c r="F124" s="4" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="4"/>
-      <c r="B125" s="4"/>
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
       <c r="C125" s="7"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="4"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
     </row>
     <row r="126" spans="1:6" ht="39.6">
       <c r="A126" s="1" t="s">
@@ -7255,7 +7255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="52.8">
+    <row r="127" spans="1:6" ht="39.6">
       <c r="A127" s="1" t="s">
         <v>150</v>
       </c>
@@ -7336,32 +7336,32 @@
       </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="3" t="s">
+      <c r="A131" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="4" t="s">
         <v>565</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>951</v>
       </c>
-      <c r="D131" s="3" t="s">
+      <c r="D131" s="4" t="s">
         <v>952</v>
       </c>
-      <c r="E131" s="3" t="s">
+      <c r="E131" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="F131" s="3" t="s">
+      <c r="F131" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="4"/>
-      <c r="B132" s="4"/>
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
       <c r="C132" s="7"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="4"/>
-      <c r="F132" s="4"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
     </row>
     <row r="133" spans="1:6" ht="52.8">
       <c r="A133" s="1" t="s">
@@ -7424,32 +7424,32 @@
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="3" t="s">
+      <c r="A136" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="4" t="s">
         <v>569</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>957</v>
       </c>
-      <c r="D136" s="3" t="s">
+      <c r="D136" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="E136" s="3" t="s">
+      <c r="E136" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="F136" s="3" t="s">
+      <c r="F136" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="4"/>
-      <c r="B137" s="4"/>
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
       <c r="C137" s="7"/>
-      <c r="D137" s="4"/>
-      <c r="E137" s="4"/>
-      <c r="F137" s="4"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
     </row>
     <row r="138" spans="1:6" ht="26.4">
       <c r="A138" s="1" t="s">
@@ -7511,7 +7511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="26.4">
+    <row r="141" spans="1:6">
       <c r="A141" s="1" t="s">
         <v>164</v>
       </c>
@@ -7632,60 +7632,60 @@
       </c>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="4" t="s">
         <v>174</v>
       </c>
       <c r="B147" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C147" s="4" t="s">
         <v>746</v>
       </c>
-      <c r="D147" s="3" t="s">
+      <c r="D147" s="4" t="s">
         <v>972</v>
       </c>
-      <c r="E147" s="3" t="s">
+      <c r="E147" s="4" t="s">
         <v>973</v>
       </c>
-      <c r="F147" s="3" t="s">
+      <c r="F147" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="4"/>
+      <c r="A148" s="5"/>
       <c r="B148" s="7"/>
-      <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
-      <c r="E148" s="4"/>
-      <c r="F148" s="4"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="3" t="s">
+      <c r="A149" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B149" s="4" t="s">
         <v>580</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>974</v>
       </c>
-      <c r="D149" s="3" t="s">
+      <c r="D149" s="4" t="s">
         <v>975</v>
       </c>
-      <c r="E149" s="3" t="s">
+      <c r="E149" s="4" t="s">
         <v>976</v>
       </c>
-      <c r="F149" s="3" t="s">
+      <c r="F149" s="4" t="s">
         <v>977</v>
       </c>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="4"/>
-      <c r="B150" s="4"/>
+      <c r="A150" s="5"/>
+      <c r="B150" s="5"/>
       <c r="C150" s="7"/>
-      <c r="D150" s="4"/>
-      <c r="E150" s="4"/>
-      <c r="F150" s="4"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
     </row>
     <row r="151" spans="1:6" ht="66">
       <c r="A151" s="1" t="s">
@@ -7728,88 +7728,88 @@
       </c>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="3" t="s">
+      <c r="A153" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" s="4" t="s">
         <v>583</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>981</v>
       </c>
-      <c r="D153" s="3" t="s">
+      <c r="D153" s="4" t="s">
         <v>982</v>
       </c>
-      <c r="E153" s="3" t="s">
+      <c r="E153" s="4" t="s">
         <v>983</v>
       </c>
-      <c r="F153" s="3" t="s">
+      <c r="F153" s="4" t="s">
         <v>984</v>
       </c>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="4"/>
-      <c r="B154" s="4"/>
+      <c r="A154" s="5"/>
+      <c r="B154" s="5"/>
       <c r="C154" s="7"/>
-      <c r="D154" s="4"/>
-      <c r="E154" s="4"/>
-      <c r="F154" s="4"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="3" t="s">
+      <c r="A155" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" s="4" t="s">
         <v>584</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>985</v>
       </c>
-      <c r="D155" s="3" t="s">
+      <c r="D155" s="4" t="s">
         <v>986</v>
       </c>
-      <c r="E155" s="3" t="s">
+      <c r="E155" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="F155" s="3" t="s">
+      <c r="F155" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="4"/>
-      <c r="B156" s="4"/>
+      <c r="A156" s="5"/>
+      <c r="B156" s="5"/>
       <c r="C156" s="7"/>
-      <c r="D156" s="4"/>
-      <c r="E156" s="4"/>
-      <c r="F156" s="4"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B157" s="4" t="s">
         <v>585</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>987</v>
       </c>
-      <c r="D157" s="3" t="s">
+      <c r="D157" s="4" t="s">
         <v>988</v>
       </c>
-      <c r="E157" s="3" t="s">
+      <c r="E157" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="F157" s="3" t="s">
+      <c r="F157" s="4" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="4"/>
-      <c r="B158" s="4"/>
+      <c r="A158" s="5"/>
+      <c r="B158" s="5"/>
       <c r="C158" s="7"/>
-      <c r="D158" s="4"/>
-      <c r="E158" s="4"/>
-      <c r="F158" s="4"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
     </row>
     <row r="159" spans="1:6" ht="39.6">
       <c r="A159" s="1" t="s">
@@ -7832,32 +7832,32 @@
       </c>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="3" t="s">
+      <c r="A160" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B160" s="4" t="s">
         <v>587</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>989</v>
       </c>
-      <c r="D160" s="3" t="s">
+      <c r="D160" s="4" t="s">
         <v>990</v>
       </c>
-      <c r="E160" s="3" t="s">
+      <c r="E160" s="4" t="s">
         <v>991</v>
       </c>
-      <c r="F160" s="3" t="s">
+      <c r="F160" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="4"/>
-      <c r="B161" s="4"/>
+      <c r="A161" s="5"/>
+      <c r="B161" s="5"/>
       <c r="C161" s="7"/>
-      <c r="D161" s="4"/>
-      <c r="E161" s="4"/>
-      <c r="F161" s="4"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
     </row>
     <row r="162" spans="1:6" ht="145.19999999999999">
       <c r="A162" s="1" t="s">
@@ -7920,60 +7920,60 @@
       </c>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="3" t="s">
+      <c r="A165" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="B165" s="4" t="s">
         <v>591</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>998</v>
       </c>
-      <c r="D165" s="3" t="s">
+      <c r="D165" s="4" t="s">
         <v>999</v>
       </c>
-      <c r="E165" s="3" t="s">
+      <c r="E165" s="4" t="s">
         <v>739</v>
       </c>
-      <c r="F165" s="3" t="s">
+      <c r="F165" s="4" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="4"/>
-      <c r="B166" s="4"/>
+      <c r="A166" s="5"/>
+      <c r="B166" s="5"/>
       <c r="C166" s="7"/>
-      <c r="D166" s="4"/>
-      <c r="E166" s="4"/>
-      <c r="F166" s="4"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" s="3" t="s">
+      <c r="A167" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="B167" s="4" t="s">
         <v>592</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>1000</v>
       </c>
-      <c r="D167" s="3" t="s">
+      <c r="D167" s="4" t="s">
         <v>999</v>
       </c>
-      <c r="E167" s="3" t="s">
+      <c r="E167" s="4" t="s">
         <v>739</v>
       </c>
-      <c r="F167" s="3" t="s">
+      <c r="F167" s="4" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="4"/>
-      <c r="B168" s="4"/>
+      <c r="A168" s="5"/>
+      <c r="B168" s="5"/>
       <c r="C168" s="7"/>
-      <c r="D168" s="4"/>
-      <c r="E168" s="4"/>
-      <c r="F168" s="4"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
     </row>
     <row r="169" spans="1:6" ht="52.8">
       <c r="A169" s="1" t="s">
@@ -7996,32 +7996,32 @@
       </c>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="3" t="s">
+      <c r="A170" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="B170" s="4" t="s">
         <v>594</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>1004</v>
       </c>
-      <c r="D170" s="3" t="s">
+      <c r="D170" s="4" t="s">
         <v>1005</v>
       </c>
-      <c r="E170" s="3" t="s">
+      <c r="E170" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="F170" s="3" t="s">
+      <c r="F170" s="4" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="171" spans="1:6">
-      <c r="A171" s="4"/>
-      <c r="B171" s="4"/>
+      <c r="A171" s="5"/>
+      <c r="B171" s="5"/>
       <c r="C171" s="7"/>
-      <c r="D171" s="4"/>
-      <c r="E171" s="4"/>
-      <c r="F171" s="4"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
+      <c r="F171" s="5"/>
     </row>
     <row r="172" spans="1:6" ht="26.4">
       <c r="A172" s="1" t="s">
@@ -8083,7 +8083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="52.8">
+    <row r="175" spans="1:6" ht="39.6">
       <c r="A175" s="1" t="s">
         <v>197</v>
       </c>
@@ -8093,7 +8093,7 @@
       <c r="C175" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="D175" s="5"/>
+      <c r="D175" s="3"/>
       <c r="E175" s="1" t="s">
         <v>1010</v>
       </c>
@@ -8121,7 +8121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="66">
+    <row r="177" spans="1:6" ht="52.8">
       <c r="A177" s="1" t="s">
         <v>199</v>
       </c>
@@ -8161,7 +8161,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="52.8">
+    <row r="179" spans="1:6" ht="39.6">
       <c r="A179" s="1" t="s">
         <v>201</v>
       </c>
@@ -8181,7 +8181,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="79.2">
+    <row r="180" spans="1:6" ht="66">
       <c r="A180" s="1" t="s">
         <v>203</v>
       </c>
@@ -8322,32 +8322,32 @@
       </c>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="3" t="s">
+      <c r="A187" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B187" s="3" t="s">
+      <c r="B187" s="4" t="s">
         <v>610</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>1033</v>
       </c>
-      <c r="D187" s="3" t="s">
+      <c r="D187" s="4" t="s">
         <v>1034</v>
       </c>
-      <c r="E187" s="3" t="s">
+      <c r="E187" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="F187" s="3" t="s">
+      <c r="F187" s="4" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="188" spans="1:6">
-      <c r="A188" s="4"/>
-      <c r="B188" s="4"/>
+      <c r="A188" s="5"/>
+      <c r="B188" s="5"/>
       <c r="C188" s="7"/>
-      <c r="D188" s="4"/>
-      <c r="E188" s="4"/>
-      <c r="F188" s="4"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
+      <c r="F188" s="5"/>
     </row>
     <row r="189" spans="1:6" ht="26.4">
       <c r="A189" s="1" t="s">
@@ -8390,7 +8390,7 @@
       </c>
     </row>
     <row r="191" spans="1:6">
-      <c r="A191" s="3" t="s">
+      <c r="A191" s="4" t="s">
         <v>218</v>
       </c>
       <c r="B191" s="6" t="s">
@@ -8399,23 +8399,23 @@
       <c r="C191" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="D191" s="3" t="s">
+      <c r="D191" s="4" t="s">
         <v>1038</v>
       </c>
-      <c r="E191" s="3" t="s">
+      <c r="E191" s="4" t="s">
         <v>1039</v>
       </c>
-      <c r="F191" s="3" t="s">
+      <c r="F191" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" s="4"/>
+      <c r="A192" s="5"/>
       <c r="B192" s="7"/>
       <c r="C192" s="7"/>
-      <c r="D192" s="4"/>
-      <c r="E192" s="4"/>
-      <c r="F192" s="4"/>
+      <c r="D192" s="5"/>
+      <c r="E192" s="5"/>
+      <c r="F192" s="5"/>
     </row>
     <row r="193" spans="1:6" ht="66">
       <c r="A193" s="1" t="s">
@@ -8458,34 +8458,34 @@
       </c>
     </row>
     <row r="195" spans="1:6">
-      <c r="A195" s="3" t="s">
+      <c r="A195" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B195" s="3" t="s">
+      <c r="B195" s="4" t="s">
         <v>616</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>1042</v>
       </c>
-      <c r="D195" s="3" t="s">
+      <c r="D195" s="4" t="s">
         <v>1043</v>
       </c>
-      <c r="E195" s="3" t="s">
+      <c r="E195" s="4" t="s">
         <v>864</v>
       </c>
-      <c r="F195" s="3" t="s">
+      <c r="F195" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="196" spans="1:6">
-      <c r="A196" s="4"/>
-      <c r="B196" s="4"/>
+      <c r="A196" s="5"/>
+      <c r="B196" s="5"/>
       <c r="C196" s="7"/>
-      <c r="D196" s="4"/>
-      <c r="E196" s="4"/>
-      <c r="F196" s="4"/>
-    </row>
-    <row r="197" spans="1:6" ht="79.2">
+      <c r="D196" s="5"/>
+      <c r="E196" s="5"/>
+      <c r="F196" s="5"/>
+    </row>
+    <row r="197" spans="1:6" ht="66">
       <c r="A197" s="1" t="s">
         <v>223</v>
       </c>
@@ -8495,7 +8495,7 @@
       <c r="C197" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="D197" s="5"/>
+      <c r="D197" s="3"/>
       <c r="E197" s="1" t="s">
         <v>1044</v>
       </c>
@@ -8504,32 +8504,32 @@
       </c>
     </row>
     <row r="198" spans="1:6">
-      <c r="A198" s="3" t="s">
+      <c r="A198" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B198" s="3" t="s">
+      <c r="B198" s="4" t="s">
         <v>618</v>
       </c>
       <c r="C198" s="6" t="s">
         <v>1045</v>
       </c>
-      <c r="D198" s="3" t="s">
+      <c r="D198" s="4" t="s">
         <v>1046</v>
       </c>
-      <c r="E198" s="3" t="s">
+      <c r="E198" s="4" t="s">
         <v>1047</v>
       </c>
-      <c r="F198" s="3" t="s">
+      <c r="F198" s="4" t="s">
         <v>1048</v>
       </c>
     </row>
     <row r="199" spans="1:6">
-      <c r="A199" s="4"/>
-      <c r="B199" s="4"/>
+      <c r="A199" s="5"/>
+      <c r="B199" s="5"/>
       <c r="C199" s="7"/>
-      <c r="D199" s="4"/>
-      <c r="E199" s="4"/>
-      <c r="F199" s="4"/>
+      <c r="D199" s="5"/>
+      <c r="E199" s="5"/>
+      <c r="F199" s="5"/>
     </row>
     <row r="200" spans="1:6" ht="66">
       <c r="A200" s="1" t="s">
@@ -8572,32 +8572,32 @@
       </c>
     </row>
     <row r="202" spans="1:6">
-      <c r="A202" s="3" t="s">
+      <c r="A202" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B202" s="3" t="s">
+      <c r="B202" s="4" t="s">
         <v>621</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>1053</v>
       </c>
-      <c r="D202" s="3" t="s">
+      <c r="D202" s="4" t="s">
         <v>1054</v>
       </c>
-      <c r="E202" s="3" t="s">
+      <c r="E202" s="4" t="s">
         <v>1055</v>
       </c>
-      <c r="F202" s="3" t="s">
+      <c r="F202" s="4" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="203" spans="1:6">
-      <c r="A203" s="4"/>
-      <c r="B203" s="4"/>
+      <c r="A203" s="5"/>
+      <c r="B203" s="5"/>
       <c r="C203" s="7"/>
-      <c r="D203" s="4"/>
-      <c r="E203" s="4"/>
-      <c r="F203" s="4"/>
+      <c r="D203" s="5"/>
+      <c r="E203" s="5"/>
+      <c r="F203" s="5"/>
     </row>
     <row r="204" spans="1:6" ht="39.6">
       <c r="A204" s="1" t="s">
@@ -8640,32 +8640,32 @@
       </c>
     </row>
     <row r="206" spans="1:6">
-      <c r="A206" s="3" t="s">
+      <c r="A206" s="4" t="s">
         <v>232</v>
       </c>
       <c r="B206" s="6" t="s">
         <v>624</v>
       </c>
-      <c r="C206" s="3" t="s">
+      <c r="C206" s="4" t="s">
         <v>1059</v>
       </c>
-      <c r="D206" s="3" t="s">
+      <c r="D206" s="4" t="s">
         <v>1060</v>
       </c>
-      <c r="E206" s="3" t="s">
+      <c r="E206" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="F206" s="3" t="s">
+      <c r="F206" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="207" spans="1:6">
-      <c r="A207" s="4"/>
+      <c r="A207" s="5"/>
       <c r="B207" s="7"/>
-      <c r="C207" s="4"/>
-      <c r="D207" s="4"/>
-      <c r="E207" s="4"/>
-      <c r="F207" s="4"/>
+      <c r="C207" s="5"/>
+      <c r="D207" s="5"/>
+      <c r="E207" s="5"/>
+      <c r="F207" s="5"/>
     </row>
     <row r="208" spans="1:6" ht="79.2">
       <c r="A208" s="1" t="s">
@@ -8748,32 +8748,32 @@
       </c>
     </row>
     <row r="212" spans="1:6">
-      <c r="A212" s="3" t="s">
+      <c r="A212" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B212" s="3" t="s">
+      <c r="B212" s="4" t="s">
         <v>629</v>
       </c>
       <c r="C212" s="6" t="s">
         <v>1067</v>
       </c>
-      <c r="D212" s="3" t="s">
+      <c r="D212" s="4" t="s">
         <v>1068</v>
       </c>
-      <c r="E212" s="3" t="s">
+      <c r="E212" s="4" t="s">
         <v>1069</v>
       </c>
-      <c r="F212" s="3" t="s">
+      <c r="F212" s="4" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="213" spans="1:6">
-      <c r="A213" s="4"/>
-      <c r="B213" s="4"/>
+      <c r="A213" s="5"/>
+      <c r="B213" s="5"/>
       <c r="C213" s="7"/>
-      <c r="D213" s="4"/>
-      <c r="E213" s="4"/>
-      <c r="F213" s="4"/>
+      <c r="D213" s="5"/>
+      <c r="E213" s="5"/>
+      <c r="F213" s="5"/>
     </row>
     <row r="214" spans="1:6" ht="132">
       <c r="A214" s="1" t="s">
@@ -8795,7 +8795,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="105.6">
+    <row r="215" spans="1:6" ht="79.2">
       <c r="A215" s="1" t="s">
         <v>242</v>
       </c>
@@ -8855,7 +8855,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="52.8">
+    <row r="218" spans="1:6" ht="39.6">
       <c r="A218" s="1" t="s">
         <v>245</v>
       </c>
@@ -8956,32 +8956,32 @@
       </c>
     </row>
     <row r="223" spans="1:6">
-      <c r="A223" s="3" t="s">
+      <c r="A223" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B223" s="3" t="s">
+      <c r="B223" s="4" t="s">
         <v>638</v>
       </c>
       <c r="C223" s="6" t="s">
         <v>1084</v>
       </c>
-      <c r="D223" s="3" t="s">
+      <c r="D223" s="4" t="s">
         <v>1085</v>
       </c>
-      <c r="E223" s="3" t="s">
+      <c r="E223" s="4" t="s">
         <v>1086</v>
       </c>
-      <c r="F223" s="3" t="s">
+      <c r="F223" s="4" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="224" spans="1:6">
-      <c r="A224" s="4"/>
-      <c r="B224" s="4"/>
+      <c r="A224" s="5"/>
+      <c r="B224" s="5"/>
       <c r="C224" s="7"/>
-      <c r="D224" s="4"/>
-      <c r="E224" s="4"/>
-      <c r="F224" s="4"/>
+      <c r="D224" s="5"/>
+      <c r="E224" s="5"/>
+      <c r="F224" s="5"/>
     </row>
     <row r="225" spans="1:6" ht="39.6">
       <c r="A225" s="1" t="s">
@@ -9024,32 +9024,32 @@
       </c>
     </row>
     <row r="227" spans="1:6">
-      <c r="A227" s="3" t="s">
+      <c r="A227" s="4" t="s">
         <v>255</v>
       </c>
       <c r="B227" s="6" t="s">
         <v>641</v>
       </c>
-      <c r="C227" s="3" t="s">
+      <c r="C227" s="4" t="s">
         <v>746</v>
       </c>
-      <c r="D227" s="3" t="s">
+      <c r="D227" s="4" t="s">
         <v>1092</v>
       </c>
-      <c r="E227" s="3" t="s">
+      <c r="E227" s="4" t="s">
         <v>889</v>
       </c>
-      <c r="F227" s="3" t="s">
+      <c r="F227" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:6">
-      <c r="A228" s="4"/>
+      <c r="A228" s="5"/>
       <c r="B228" s="7"/>
-      <c r="C228" s="4"/>
-      <c r="D228" s="4"/>
-      <c r="E228" s="4"/>
-      <c r="F228" s="4"/>
+      <c r="C228" s="5"/>
+      <c r="D228" s="5"/>
+      <c r="E228" s="5"/>
+      <c r="F228" s="5"/>
     </row>
     <row r="229" spans="1:6" ht="39.6">
       <c r="A229" s="1" t="s">
@@ -9192,60 +9192,60 @@
       </c>
     </row>
     <row r="236" spans="1:6">
-      <c r="A236" s="3" t="s">
+      <c r="A236" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B236" s="3" t="s">
+      <c r="B236" s="4" t="s">
         <v>649</v>
       </c>
       <c r="C236" s="6" t="s">
         <v>1101</v>
       </c>
-      <c r="D236" s="3" t="s">
+      <c r="D236" s="4" t="s">
         <v>1102</v>
       </c>
-      <c r="E236" s="3" t="s">
+      <c r="E236" s="4" t="s">
         <v>792</v>
       </c>
-      <c r="F236" s="3" t="s">
+      <c r="F236" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:6">
-      <c r="A237" s="4"/>
-      <c r="B237" s="4"/>
+      <c r="A237" s="5"/>
+      <c r="B237" s="5"/>
       <c r="C237" s="7"/>
-      <c r="D237" s="4"/>
-      <c r="E237" s="4"/>
-      <c r="F237" s="4"/>
+      <c r="D237" s="5"/>
+      <c r="E237" s="5"/>
+      <c r="F237" s="5"/>
     </row>
     <row r="238" spans="1:6">
-      <c r="A238" s="3" t="s">
+      <c r="A238" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="B238" s="3" t="s">
+      <c r="B238" s="4" t="s">
         <v>650</v>
       </c>
       <c r="C238" s="6" t="s">
         <v>1103</v>
       </c>
-      <c r="D238" s="3" t="s">
+      <c r="D238" s="4" t="s">
         <v>1104</v>
       </c>
-      <c r="E238" s="3" t="s">
+      <c r="E238" s="4" t="s">
         <v>1105</v>
       </c>
-      <c r="F238" s="3" t="s">
+      <c r="F238" s="4" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="239" spans="1:6">
-      <c r="A239" s="4"/>
-      <c r="B239" s="4"/>
+      <c r="A239" s="5"/>
+      <c r="B239" s="5"/>
       <c r="C239" s="7"/>
-      <c r="D239" s="4"/>
-      <c r="E239" s="4"/>
-      <c r="F239" s="4"/>
+      <c r="D239" s="5"/>
+      <c r="E239" s="5"/>
+      <c r="F239" s="5"/>
     </row>
     <row r="240" spans="1:6" ht="39.6">
       <c r="A240" s="1" t="s">
@@ -9367,7 +9367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="39.6">
+    <row r="246" spans="1:6" ht="26.4">
       <c r="A246" s="1" t="s">
         <v>276</v>
       </c>
@@ -9408,32 +9408,32 @@
       </c>
     </row>
     <row r="248" spans="1:6">
-      <c r="A248" s="3" t="s">
+      <c r="A248" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="B248" s="3" t="s">
+      <c r="B248" s="4" t="s">
         <v>659</v>
       </c>
       <c r="C248" s="6" t="s">
         <v>1119</v>
       </c>
-      <c r="D248" s="3" t="s">
+      <c r="D248" s="4" t="s">
         <v>1120</v>
       </c>
-      <c r="E248" s="3" t="s">
+      <c r="E248" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="F248" s="3" t="s">
+      <c r="F248" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:6">
-      <c r="A249" s="4"/>
-      <c r="B249" s="4"/>
+      <c r="A249" s="5"/>
+      <c r="B249" s="5"/>
       <c r="C249" s="7"/>
-      <c r="D249" s="4"/>
-      <c r="E249" s="4"/>
-      <c r="F249" s="4"/>
+      <c r="D249" s="5"/>
+      <c r="E249" s="5"/>
+      <c r="F249" s="5"/>
     </row>
     <row r="250" spans="1:6" ht="39.6">
       <c r="A250" s="1" t="s">
@@ -9495,7 +9495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="66">
+    <row r="253" spans="1:6" ht="52.8">
       <c r="A253" s="1" t="s">
         <v>282</v>
       </c>
@@ -9515,7 +9515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="79.2">
+    <row r="254" spans="1:6" ht="66">
       <c r="A254" s="1" t="s">
         <v>283</v>
       </c>
@@ -9556,34 +9556,34 @@
       </c>
     </row>
     <row r="256" spans="1:6">
-      <c r="A256" s="3" t="s">
+      <c r="A256" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="B256" s="3" t="s">
+      <c r="B256" s="4" t="s">
         <v>666</v>
       </c>
       <c r="C256" s="6" t="s">
         <v>1135</v>
       </c>
-      <c r="D256" s="3" t="s">
+      <c r="D256" s="4" t="s">
         <v>1136</v>
       </c>
-      <c r="E256" s="3" t="s">
+      <c r="E256" s="4" t="s">
         <v>1039</v>
       </c>
-      <c r="F256" s="3" t="s">
+      <c r="F256" s="4" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="257" spans="1:6">
-      <c r="A257" s="4"/>
-      <c r="B257" s="4"/>
+      <c r="A257" s="5"/>
+      <c r="B257" s="5"/>
       <c r="C257" s="7"/>
-      <c r="D257" s="4"/>
-      <c r="E257" s="4"/>
-      <c r="F257" s="4"/>
-    </row>
-    <row r="258" spans="1:6" ht="52.8">
+      <c r="D257" s="5"/>
+      <c r="E257" s="5"/>
+      <c r="F257" s="5"/>
+    </row>
+    <row r="258" spans="1:6" ht="39.6">
       <c r="A258" s="1" t="s">
         <v>288</v>
       </c>
@@ -9604,32 +9604,32 @@
       </c>
     </row>
     <row r="259" spans="1:6">
-      <c r="A259" s="3" t="s">
+      <c r="A259" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="B259" s="3" t="s">
+      <c r="B259" s="4" t="s">
         <v>668</v>
       </c>
       <c r="C259" s="6" t="s">
         <v>1139</v>
       </c>
-      <c r="D259" s="3" t="s">
+      <c r="D259" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="E259" s="3" t="s">
+      <c r="E259" s="4" t="s">
         <v>742</v>
       </c>
-      <c r="F259" s="3" t="s">
+      <c r="F259" s="4" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="260" spans="1:6">
-      <c r="A260" s="4"/>
-      <c r="B260" s="4"/>
+      <c r="A260" s="5"/>
+      <c r="B260" s="5"/>
       <c r="C260" s="7"/>
-      <c r="D260" s="4"/>
-      <c r="E260" s="4"/>
-      <c r="F260" s="4"/>
+      <c r="D260" s="5"/>
+      <c r="E260" s="5"/>
+      <c r="F260" s="5"/>
     </row>
     <row r="261" spans="1:6" ht="26.4">
       <c r="A261" s="1" t="s">
@@ -9712,34 +9712,34 @@
       </c>
     </row>
     <row r="265" spans="1:6">
-      <c r="A265" s="3" t="s">
+      <c r="A265" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="B265" s="3" t="s">
+      <c r="B265" s="4" t="s">
         <v>673</v>
       </c>
       <c r="C265" s="6" t="s">
         <v>1141</v>
       </c>
-      <c r="D265" s="3" t="s">
+      <c r="D265" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="E265" s="3" t="s">
+      <c r="E265" s="4" t="s">
         <v>1142</v>
       </c>
-      <c r="F265" s="3" t="s">
+      <c r="F265" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:6">
-      <c r="A266" s="4"/>
-      <c r="B266" s="4"/>
+      <c r="A266" s="5"/>
+      <c r="B266" s="5"/>
       <c r="C266" s="7"/>
-      <c r="D266" s="4"/>
-      <c r="E266" s="4"/>
-      <c r="F266" s="4"/>
-    </row>
-    <row r="267" spans="1:6" ht="79.2">
+      <c r="D266" s="5"/>
+      <c r="E266" s="5"/>
+      <c r="F266" s="5"/>
+    </row>
+    <row r="267" spans="1:6" ht="52.8">
       <c r="A267" s="1" t="s">
         <v>297</v>
       </c>
@@ -9749,7 +9749,7 @@
       <c r="C267" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="D267" s="5"/>
+      <c r="D267" s="3"/>
       <c r="E267" s="1" t="s">
         <v>1143</v>
       </c>
@@ -9778,60 +9778,60 @@
       </c>
     </row>
     <row r="269" spans="1:6">
-      <c r="A269" s="3" t="s">
+      <c r="A269" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B269" s="3" t="s">
+      <c r="B269" s="4" t="s">
         <v>676</v>
       </c>
       <c r="C269" s="6" t="s">
         <v>1144</v>
       </c>
-      <c r="D269" s="3" t="s">
+      <c r="D269" s="4" t="s">
         <v>783</v>
       </c>
-      <c r="E269" s="3" t="s">
+      <c r="E269" s="4" t="s">
         <v>1142</v>
       </c>
-      <c r="F269" s="3" t="s">
+      <c r="F269" s="4" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="270" spans="1:6">
-      <c r="A270" s="4"/>
-      <c r="B270" s="4"/>
+      <c r="A270" s="5"/>
+      <c r="B270" s="5"/>
       <c r="C270" s="7"/>
-      <c r="D270" s="4"/>
-      <c r="E270" s="4"/>
-      <c r="F270" s="4"/>
+      <c r="D270" s="5"/>
+      <c r="E270" s="5"/>
+      <c r="F270" s="5"/>
     </row>
     <row r="271" spans="1:6">
-      <c r="A271" s="3" t="s">
+      <c r="A271" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="B271" s="3" t="s">
+      <c r="B271" s="4" t="s">
         <v>677</v>
       </c>
       <c r="C271" s="6" t="s">
         <v>1145</v>
       </c>
-      <c r="D271" s="3" t="s">
+      <c r="D271" s="4" t="s">
         <v>1146</v>
       </c>
-      <c r="E271" s="3" t="s">
+      <c r="E271" s="4" t="s">
         <v>759</v>
       </c>
-      <c r="F271" s="3" t="s">
+      <c r="F271" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:6">
-      <c r="A272" s="4"/>
-      <c r="B272" s="4"/>
+      <c r="A272" s="5"/>
+      <c r="B272" s="5"/>
       <c r="C272" s="7"/>
-      <c r="D272" s="4"/>
-      <c r="E272" s="4"/>
-      <c r="F272" s="4"/>
+      <c r="D272" s="5"/>
+      <c r="E272" s="5"/>
+      <c r="F272" s="5"/>
     </row>
     <row r="273" spans="1:6" ht="26.4">
       <c r="A273" s="1" t="s">
@@ -9893,7 +9893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="79.2">
+    <row r="276" spans="1:6" ht="52.8">
       <c r="A276" s="1" t="s">
         <v>306</v>
       </c>
@@ -9934,62 +9934,62 @@
       </c>
     </row>
     <row r="278" spans="1:6">
-      <c r="A278" s="3" t="s">
+      <c r="A278" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="B278" s="3" t="s">
+      <c r="B278" s="4" t="s">
         <v>683</v>
       </c>
       <c r="C278" s="6" t="s">
         <v>1149</v>
       </c>
-      <c r="D278" s="3" t="s">
+      <c r="D278" s="4" t="s">
         <v>1150</v>
       </c>
-      <c r="E278" s="3" t="s">
+      <c r="E278" s="4" t="s">
         <v>742</v>
       </c>
-      <c r="F278" s="3" t="s">
+      <c r="F278" s="4" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="279" spans="1:6">
-      <c r="A279" s="4"/>
-      <c r="B279" s="4"/>
+      <c r="A279" s="5"/>
+      <c r="B279" s="5"/>
       <c r="C279" s="7"/>
-      <c r="D279" s="4"/>
-      <c r="E279" s="4"/>
-      <c r="F279" s="4"/>
+      <c r="D279" s="5"/>
+      <c r="E279" s="5"/>
+      <c r="F279" s="5"/>
     </row>
     <row r="280" spans="1:6">
-      <c r="A280" s="3" t="s">
+      <c r="A280" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="B280" s="3" t="s">
+      <c r="B280" s="4" t="s">
         <v>684</v>
       </c>
       <c r="C280" s="6" t="s">
         <v>1151</v>
       </c>
-      <c r="D280" s="3" t="s">
+      <c r="D280" s="4" t="s">
         <v>1152</v>
       </c>
-      <c r="E280" s="3" t="s">
+      <c r="E280" s="4" t="s">
         <v>827</v>
       </c>
-      <c r="F280" s="3" t="s">
+      <c r="F280" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="281" spans="1:6">
-      <c r="A281" s="4"/>
-      <c r="B281" s="4"/>
+      <c r="A281" s="5"/>
+      <c r="B281" s="5"/>
       <c r="C281" s="7"/>
-      <c r="D281" s="4"/>
-      <c r="E281" s="4"/>
-      <c r="F281" s="4"/>
-    </row>
-    <row r="282" spans="1:6" ht="52.8">
+      <c r="D281" s="5"/>
+      <c r="E281" s="5"/>
+      <c r="F281" s="5"/>
+    </row>
+    <row r="282" spans="1:6" ht="39.6">
       <c r="A282" s="1" t="s">
         <v>311</v>
       </c>
@@ -10010,116 +10010,116 @@
       </c>
     </row>
     <row r="283" spans="1:6">
-      <c r="A283" s="3" t="s">
+      <c r="A283" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="B283" s="3" t="s">
+      <c r="B283" s="4" t="s">
         <v>686</v>
       </c>
       <c r="C283" s="6" t="s">
         <v>1156</v>
       </c>
-      <c r="D283" s="3" t="s">
+      <c r="D283" s="4" t="s">
         <v>1154</v>
       </c>
-      <c r="E283" s="3" t="s">
+      <c r="E283" s="4" t="s">
         <v>742</v>
       </c>
-      <c r="F283" s="3" t="s">
+      <c r="F283" s="4" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="284" spans="1:6">
-      <c r="A284" s="4"/>
-      <c r="B284" s="4"/>
+      <c r="A284" s="5"/>
+      <c r="B284" s="5"/>
       <c r="C284" s="7"/>
-      <c r="D284" s="4"/>
-      <c r="E284" s="4"/>
-      <c r="F284" s="4"/>
+      <c r="D284" s="5"/>
+      <c r="E284" s="5"/>
+      <c r="F284" s="5"/>
     </row>
     <row r="285" spans="1:6">
-      <c r="A285" s="3" t="s">
+      <c r="A285" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="B285" s="3" t="s">
+      <c r="B285" s="4" t="s">
         <v>687</v>
       </c>
       <c r="C285" s="6" t="s">
         <v>1157</v>
       </c>
-      <c r="D285" s="3" t="s">
+      <c r="D285" s="4" t="s">
         <v>1158</v>
       </c>
-      <c r="E285" s="3" t="s">
+      <c r="E285" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="F285" s="3" t="s">
+      <c r="F285" s="4" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="286" spans="1:6">
-      <c r="A286" s="4"/>
-      <c r="B286" s="4"/>
+      <c r="A286" s="5"/>
+      <c r="B286" s="5"/>
       <c r="C286" s="7"/>
-      <c r="D286" s="4"/>
-      <c r="E286" s="4"/>
-      <c r="F286" s="4"/>
+      <c r="D286" s="5"/>
+      <c r="E286" s="5"/>
+      <c r="F286" s="5"/>
     </row>
     <row r="287" spans="1:6">
-      <c r="A287" s="3" t="s">
+      <c r="A287" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="B287" s="3" t="s">
+      <c r="B287" s="4" t="s">
         <v>688</v>
       </c>
       <c r="C287" s="6" t="s">
         <v>1159</v>
       </c>
-      <c r="D287" s="3" t="s">
+      <c r="D287" s="4" t="s">
         <v>1158</v>
       </c>
-      <c r="E287" s="3" t="s">
+      <c r="E287" s="4" t="s">
         <v>1010</v>
       </c>
-      <c r="F287" s="3" t="s">
+      <c r="F287" s="4" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="288" spans="1:6">
-      <c r="A288" s="4"/>
-      <c r="B288" s="4"/>
+      <c r="A288" s="5"/>
+      <c r="B288" s="5"/>
       <c r="C288" s="7"/>
-      <c r="D288" s="4"/>
-      <c r="E288" s="4"/>
-      <c r="F288" s="4"/>
+      <c r="D288" s="5"/>
+      <c r="E288" s="5"/>
+      <c r="F288" s="5"/>
     </row>
     <row r="289" spans="1:6">
-      <c r="A289" s="3" t="s">
+      <c r="A289" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="B289" s="3" t="s">
+      <c r="B289" s="4" t="s">
         <v>689</v>
       </c>
       <c r="C289" s="6" t="s">
         <v>1160</v>
       </c>
-      <c r="D289" s="3" t="s">
+      <c r="D289" s="4" t="s">
         <v>1158</v>
       </c>
-      <c r="E289" s="3" t="s">
+      <c r="E289" s="4" t="s">
         <v>1010</v>
       </c>
-      <c r="F289" s="3" t="s">
+      <c r="F289" s="4" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="290" spans="1:6">
-      <c r="A290" s="4"/>
-      <c r="B290" s="4"/>
+      <c r="A290" s="5"/>
+      <c r="B290" s="5"/>
       <c r="C290" s="7"/>
-      <c r="D290" s="4"/>
-      <c r="E290" s="4"/>
-      <c r="F290" s="4"/>
+      <c r="D290" s="5"/>
+      <c r="E290" s="5"/>
+      <c r="F290" s="5"/>
     </row>
     <row r="291" spans="1:6" ht="26.4">
       <c r="A291" s="1" t="s">
@@ -10182,144 +10182,144 @@
       </c>
     </row>
     <row r="294" spans="1:6">
-      <c r="A294" s="3" t="s">
+      <c r="A294" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="B294" s="3" t="s">
+      <c r="B294" s="4" t="s">
         <v>693</v>
       </c>
       <c r="C294" s="6" t="s">
         <v>1166</v>
       </c>
-      <c r="D294" s="3" t="s">
+      <c r="D294" s="4" t="s">
         <v>896</v>
       </c>
-      <c r="E294" s="3" t="s">
+      <c r="E294" s="4" t="s">
         <v>1167</v>
       </c>
-      <c r="F294" s="3" t="s">
+      <c r="F294" s="4" t="s">
         <v>1168</v>
       </c>
     </row>
     <row r="295" spans="1:6">
-      <c r="A295" s="4"/>
-      <c r="B295" s="4"/>
+      <c r="A295" s="5"/>
+      <c r="B295" s="5"/>
       <c r="C295" s="7"/>
-      <c r="D295" s="4"/>
-      <c r="E295" s="4"/>
-      <c r="F295" s="4"/>
+      <c r="D295" s="5"/>
+      <c r="E295" s="5"/>
+      <c r="F295" s="5"/>
     </row>
     <row r="296" spans="1:6">
-      <c r="A296" s="3" t="s">
+      <c r="A296" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="B296" s="3" t="s">
+      <c r="B296" s="4" t="s">
         <v>694</v>
       </c>
       <c r="C296" s="6" t="s">
         <v>1169</v>
       </c>
-      <c r="D296" s="3" t="s">
+      <c r="D296" s="4" t="s">
         <v>1170</v>
       </c>
-      <c r="E296" s="3" t="s">
+      <c r="E296" s="4" t="s">
         <v>739</v>
       </c>
-      <c r="F296" s="3" t="s">
+      <c r="F296" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="297" spans="1:6">
-      <c r="A297" s="4"/>
-      <c r="B297" s="4"/>
+      <c r="A297" s="5"/>
+      <c r="B297" s="5"/>
       <c r="C297" s="7"/>
-      <c r="D297" s="4"/>
-      <c r="E297" s="4"/>
-      <c r="F297" s="4"/>
+      <c r="D297" s="5"/>
+      <c r="E297" s="5"/>
+      <c r="F297" s="5"/>
     </row>
     <row r="298" spans="1:6">
-      <c r="A298" s="3" t="s">
+      <c r="A298" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="B298" s="3" t="s">
+      <c r="B298" s="4" t="s">
         <v>695</v>
       </c>
       <c r="C298" s="6" t="s">
         <v>1171</v>
       </c>
-      <c r="D298" s="3" t="s">
+      <c r="D298" s="4" t="s">
         <v>1172</v>
       </c>
-      <c r="E298" s="3" t="s">
+      <c r="E298" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="F298" s="3" t="s">
+      <c r="F298" s="4" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="299" spans="1:6">
-      <c r="A299" s="4"/>
-      <c r="B299" s="4"/>
+      <c r="A299" s="5"/>
+      <c r="B299" s="5"/>
       <c r="C299" s="7"/>
-      <c r="D299" s="4"/>
-      <c r="E299" s="4"/>
-      <c r="F299" s="4"/>
+      <c r="D299" s="5"/>
+      <c r="E299" s="5"/>
+      <c r="F299" s="5"/>
     </row>
     <row r="300" spans="1:6">
-      <c r="A300" s="3" t="s">
+      <c r="A300" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="B300" s="3" t="s">
+      <c r="B300" s="4" t="s">
         <v>696</v>
       </c>
       <c r="C300" s="6" t="s">
         <v>1173</v>
       </c>
-      <c r="D300" s="3" t="s">
+      <c r="D300" s="4" t="s">
         <v>1170</v>
       </c>
-      <c r="E300" s="3" t="s">
+      <c r="E300" s="4" t="s">
         <v>1174</v>
       </c>
-      <c r="F300" s="3" t="s">
+      <c r="F300" s="4" t="s">
         <v>853</v>
       </c>
     </row>
     <row r="301" spans="1:6">
-      <c r="A301" s="4"/>
-      <c r="B301" s="4"/>
+      <c r="A301" s="5"/>
+      <c r="B301" s="5"/>
       <c r="C301" s="7"/>
-      <c r="D301" s="4"/>
-      <c r="E301" s="4"/>
-      <c r="F301" s="4"/>
+      <c r="D301" s="5"/>
+      <c r="E301" s="5"/>
+      <c r="F301" s="5"/>
     </row>
     <row r="302" spans="1:6">
-      <c r="A302" s="3" t="s">
+      <c r="A302" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B302" s="3" t="s">
+      <c r="B302" s="4" t="s">
         <v>697</v>
       </c>
       <c r="C302" s="6" t="s">
         <v>1175</v>
       </c>
-      <c r="D302" s="3" t="s">
+      <c r="D302" s="4" t="s">
         <v>1176</v>
       </c>
-      <c r="E302" s="3" t="s">
+      <c r="E302" s="4" t="s">
         <v>936</v>
       </c>
-      <c r="F302" s="3" t="s">
+      <c r="F302" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="303" spans="1:6">
-      <c r="A303" s="4"/>
-      <c r="B303" s="4"/>
+      <c r="A303" s="5"/>
+      <c r="B303" s="5"/>
       <c r="C303" s="7"/>
-      <c r="D303" s="4"/>
-      <c r="E303" s="4"/>
-      <c r="F303" s="4"/>
+      <c r="D303" s="5"/>
+      <c r="E303" s="5"/>
+      <c r="F303" s="5"/>
     </row>
     <row r="304" spans="1:6" ht="52.8">
       <c r="A304" s="1" t="s">
@@ -10342,32 +10342,32 @@
       </c>
     </row>
     <row r="305" spans="1:6">
-      <c r="A305" s="3" t="s">
+      <c r="A305" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="B305" s="3" t="s">
+      <c r="B305" s="4" t="s">
         <v>699</v>
       </c>
       <c r="C305" s="6" t="s">
         <v>1177</v>
       </c>
-      <c r="D305" s="3" t="s">
+      <c r="D305" s="4" t="s">
         <v>1178</v>
       </c>
-      <c r="E305" s="3" t="s">
+      <c r="E305" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="F305" s="3" t="s">
+      <c r="F305" s="4" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="306" spans="1:6">
-      <c r="A306" s="4"/>
-      <c r="B306" s="4"/>
+      <c r="A306" s="5"/>
+      <c r="B306" s="5"/>
       <c r="C306" s="7"/>
-      <c r="D306" s="4"/>
-      <c r="E306" s="4"/>
-      <c r="F306" s="4"/>
+      <c r="D306" s="5"/>
+      <c r="E306" s="5"/>
+      <c r="F306" s="5"/>
     </row>
     <row r="307" spans="1:6" ht="52.8">
       <c r="A307" s="1" t="s">
@@ -10390,32 +10390,32 @@
       </c>
     </row>
     <row r="308" spans="1:6">
-      <c r="A308" s="3" t="s">
+      <c r="A308" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="B308" s="3" t="s">
+      <c r="B308" s="4" t="s">
         <v>701</v>
       </c>
       <c r="C308" s="6" t="s">
         <v>1179</v>
       </c>
-      <c r="D308" s="3" t="s">
+      <c r="D308" s="4" t="s">
         <v>952</v>
       </c>
-      <c r="E308" s="3" t="s">
+      <c r="E308" s="4" t="s">
         <v>742</v>
       </c>
-      <c r="F308" s="3" t="s">
+      <c r="F308" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="309" spans="1:6">
-      <c r="A309" s="4"/>
-      <c r="B309" s="4"/>
+      <c r="A309" s="5"/>
+      <c r="B309" s="5"/>
       <c r="C309" s="7"/>
-      <c r="D309" s="4"/>
-      <c r="E309" s="4"/>
-      <c r="F309" s="4"/>
+      <c r="D309" s="5"/>
+      <c r="E309" s="5"/>
+      <c r="F309" s="5"/>
     </row>
     <row r="310" spans="1:6" ht="52.8">
       <c r="A310" s="1" t="s">
@@ -10438,32 +10438,32 @@
       </c>
     </row>
     <row r="311" spans="1:6">
-      <c r="A311" s="3" t="s">
+      <c r="A311" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="B311" s="3" t="s">
+      <c r="B311" s="4" t="s">
         <v>703</v>
       </c>
       <c r="C311" s="6" t="s">
         <v>1180</v>
       </c>
-      <c r="D311" s="3" t="s">
+      <c r="D311" s="4" t="s">
         <v>1181</v>
       </c>
-      <c r="E311" s="3" t="s">
+      <c r="E311" s="4" t="s">
         <v>1182</v>
       </c>
-      <c r="F311" s="3" t="s">
+      <c r="F311" s="4" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="312" spans="1:6">
-      <c r="A312" s="4"/>
-      <c r="B312" s="4"/>
+      <c r="A312" s="5"/>
+      <c r="B312" s="5"/>
       <c r="C312" s="7"/>
-      <c r="D312" s="4"/>
-      <c r="E312" s="4"/>
-      <c r="F312" s="4"/>
+      <c r="D312" s="5"/>
+      <c r="E312" s="5"/>
+      <c r="F312" s="5"/>
     </row>
     <row r="313" spans="1:6" ht="26.4">
       <c r="A313" s="1" t="s">
@@ -10486,7 +10486,7 @@
       </c>
     </row>
     <row r="314" spans="1:6">
-      <c r="A314" s="3" t="s">
+      <c r="A314" s="4" t="s">
         <v>335</v>
       </c>
       <c r="B314" s="6" t="s">
@@ -10495,23 +10495,23 @@
       <c r="C314" s="6" t="s">
         <v>1185</v>
       </c>
-      <c r="D314" s="3" t="s">
+      <c r="D314" s="4" t="s">
         <v>1186</v>
       </c>
-      <c r="E314" s="3" t="s">
+      <c r="E314" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="F314" s="3" t="s">
+      <c r="F314" s="4" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="315" spans="1:6">
-      <c r="A315" s="4"/>
+      <c r="A315" s="5"/>
       <c r="B315" s="7"/>
       <c r="C315" s="7"/>
-      <c r="D315" s="4"/>
-      <c r="E315" s="4"/>
-      <c r="F315" s="4"/>
+      <c r="D315" s="5"/>
+      <c r="E315" s="5"/>
+      <c r="F315" s="5"/>
     </row>
     <row r="316" spans="1:6" ht="52.8">
       <c r="A316" s="1" t="s">
@@ -10573,7 +10573,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="66">
+    <row r="319" spans="1:6" ht="52.8">
       <c r="A319" s="1" t="s">
         <v>341</v>
       </c>
@@ -10593,7 +10593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:6" ht="92.4">
+    <row r="320" spans="1:6" ht="66">
       <c r="A320" s="1" t="s">
         <v>342</v>
       </c>
@@ -10654,34 +10654,34 @@
       </c>
     </row>
     <row r="323" spans="1:6">
-      <c r="A323" s="3" t="s">
+      <c r="A323" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="B323" s="3" t="s">
+      <c r="B323" s="4" t="s">
         <v>713</v>
       </c>
       <c r="C323" s="6" t="s">
         <v>1197</v>
       </c>
-      <c r="D323" s="3" t="s">
+      <c r="D323" s="4" t="s">
         <v>1198</v>
       </c>
-      <c r="E323" s="3" t="s">
+      <c r="E323" s="4" t="s">
         <v>742</v>
       </c>
-      <c r="F323" s="3" t="s">
+      <c r="F323" s="4" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="324" spans="1:6">
-      <c r="A324" s="4"/>
-      <c r="B324" s="4"/>
+      <c r="A324" s="5"/>
+      <c r="B324" s="5"/>
       <c r="C324" s="7"/>
-      <c r="D324" s="4"/>
-      <c r="E324" s="4"/>
-      <c r="F324" s="4"/>
-    </row>
-    <row r="325" spans="1:6" ht="79.2">
+      <c r="D324" s="5"/>
+      <c r="E324" s="5"/>
+      <c r="F324" s="5"/>
+    </row>
+    <row r="325" spans="1:6" ht="52.8">
       <c r="A325" s="1" t="s">
         <v>346</v>
       </c>
@@ -10702,34 +10702,34 @@
       </c>
     </row>
     <row r="326" spans="1:6">
-      <c r="A326" s="3" t="s">
+      <c r="A326" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="B326" s="3" t="s">
+      <c r="B326" s="4" t="s">
         <v>715</v>
       </c>
       <c r="C326" s="6" t="s">
         <v>1201</v>
       </c>
-      <c r="D326" s="3" t="s">
+      <c r="D326" s="4" t="s">
         <v>1065</v>
       </c>
-      <c r="E326" s="3" t="s">
+      <c r="E326" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="F326" s="3" t="s">
+      <c r="F326" s="4" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="327" spans="1:6">
-      <c r="A327" s="4"/>
-      <c r="B327" s="4"/>
+      <c r="A327" s="5"/>
+      <c r="B327" s="5"/>
       <c r="C327" s="7"/>
-      <c r="D327" s="4"/>
-      <c r="E327" s="4"/>
-      <c r="F327" s="4"/>
-    </row>
-    <row r="328" spans="1:6" ht="52.8">
+      <c r="D327" s="5"/>
+      <c r="E327" s="5"/>
+      <c r="F327" s="5"/>
+    </row>
+    <row r="328" spans="1:6" ht="39.6">
       <c r="A328" s="1" t="s">
         <v>350</v>
       </c>
@@ -10770,88 +10770,88 @@
       </c>
     </row>
     <row r="330" spans="1:6">
-      <c r="A330" s="3" t="s">
+      <c r="A330" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B330" s="3" t="s">
+      <c r="B330" s="4" t="s">
         <v>718</v>
       </c>
       <c r="C330" s="6" t="s">
         <v>1204</v>
       </c>
-      <c r="D330" s="3" t="s">
+      <c r="D330" s="4" t="s">
         <v>982</v>
       </c>
-      <c r="E330" s="3" t="s">
+      <c r="E330" s="4" t="s">
         <v>1205</v>
       </c>
-      <c r="F330" s="3" t="s">
+      <c r="F330" s="4" t="s">
         <v>1206</v>
       </c>
     </row>
     <row r="331" spans="1:6">
-      <c r="A331" s="4"/>
-      <c r="B331" s="4"/>
+      <c r="A331" s="5"/>
+      <c r="B331" s="5"/>
       <c r="C331" s="7"/>
-      <c r="D331" s="4"/>
-      <c r="E331" s="4"/>
-      <c r="F331" s="4"/>
+      <c r="D331" s="5"/>
+      <c r="E331" s="5"/>
+      <c r="F331" s="5"/>
     </row>
     <row r="332" spans="1:6">
-      <c r="A332" s="3" t="s">
+      <c r="A332" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="B332" s="3" t="s">
+      <c r="B332" s="4" t="s">
         <v>719</v>
       </c>
       <c r="C332" s="6" t="s">
         <v>1207</v>
       </c>
-      <c r="D332" s="3" t="s">
+      <c r="D332" s="4" t="s">
         <v>1208</v>
       </c>
-      <c r="E332" s="3" t="s">
+      <c r="E332" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="F332" s="3" t="s">
+      <c r="F332" s="4" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="333" spans="1:6">
-      <c r="A333" s="4"/>
-      <c r="B333" s="4"/>
+      <c r="A333" s="5"/>
+      <c r="B333" s="5"/>
       <c r="C333" s="7"/>
-      <c r="D333" s="4"/>
-      <c r="E333" s="4"/>
-      <c r="F333" s="4"/>
+      <c r="D333" s="5"/>
+      <c r="E333" s="5"/>
+      <c r="F333" s="5"/>
     </row>
     <row r="334" spans="1:6">
-      <c r="A334" s="3" t="s">
+      <c r="A334" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="B334" s="3" t="s">
+      <c r="B334" s="4" t="s">
         <v>720</v>
       </c>
       <c r="C334" s="6" t="s">
         <v>1209</v>
       </c>
-      <c r="D334" s="3" t="s">
+      <c r="D334" s="4" t="s">
         <v>1210</v>
       </c>
-      <c r="E334" s="3" t="s">
+      <c r="E334" s="4" t="s">
         <v>1211</v>
       </c>
-      <c r="F334" s="3" t="s">
+      <c r="F334" s="4" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="335" spans="1:6">
-      <c r="A335" s="4"/>
-      <c r="B335" s="4"/>
+      <c r="A335" s="5"/>
+      <c r="B335" s="5"/>
       <c r="C335" s="7"/>
-      <c r="D335" s="4"/>
-      <c r="E335" s="4"/>
-      <c r="F335" s="4"/>
+      <c r="D335" s="5"/>
+      <c r="E335" s="5"/>
+      <c r="F335" s="5"/>
     </row>
     <row r="336" spans="1:6" ht="52.8">
       <c r="A336" s="1" t="s">
@@ -10914,32 +10914,32 @@
       </c>
     </row>
     <row r="339" spans="1:6">
-      <c r="A339" s="3" t="s">
+      <c r="A339" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="B339" s="3" t="s">
+      <c r="B339" s="4" t="s">
         <v>724</v>
       </c>
       <c r="C339" s="6" t="s">
         <v>1218</v>
       </c>
-      <c r="D339" s="3" t="s">
+      <c r="D339" s="4" t="s">
         <v>1217</v>
       </c>
-      <c r="E339" s="3" t="s">
+      <c r="E339" s="4" t="s">
         <v>1184</v>
       </c>
-      <c r="F339" s="3" t="s">
+      <c r="F339" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:6">
-      <c r="A340" s="4"/>
-      <c r="B340" s="4"/>
+      <c r="A340" s="5"/>
+      <c r="B340" s="5"/>
       <c r="C340" s="7"/>
-      <c r="D340" s="4"/>
-      <c r="E340" s="4"/>
-      <c r="F340" s="4"/>
+      <c r="D340" s="5"/>
+      <c r="E340" s="5"/>
+      <c r="F340" s="5"/>
     </row>
     <row r="341" spans="1:6" ht="79.2">
       <c r="A341" s="1" t="s">
@@ -11002,32 +11002,32 @@
       </c>
     </row>
     <row r="344" spans="1:6">
-      <c r="A344" s="3" t="s">
+      <c r="A344" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="B344" s="3" t="s">
+      <c r="B344" s="4" t="s">
         <v>728</v>
       </c>
       <c r="C344" s="6" t="s">
         <v>1223</v>
       </c>
-      <c r="D344" s="3" t="s">
+      <c r="D344" s="4" t="s">
         <v>1224</v>
       </c>
-      <c r="E344" s="3" t="s">
+      <c r="E344" s="4" t="s">
         <v>885</v>
       </c>
-      <c r="F344" s="3" t="s">
+      <c r="F344" s="4" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="345" spans="1:6">
-      <c r="A345" s="4"/>
-      <c r="B345" s="4"/>
+      <c r="A345" s="5"/>
+      <c r="B345" s="5"/>
       <c r="C345" s="7"/>
-      <c r="D345" s="4"/>
-      <c r="E345" s="4"/>
-      <c r="F345" s="4"/>
+      <c r="D345" s="5"/>
+      <c r="E345" s="5"/>
+      <c r="F345" s="5"/>
     </row>
     <row r="346" spans="1:6" ht="52.8">
       <c r="A346" s="1" t="s">
@@ -11070,32 +11070,32 @@
       </c>
     </row>
     <row r="348" spans="1:6">
-      <c r="A348" s="3" t="s">
+      <c r="A348" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="B348" s="3" t="s">
+      <c r="B348" s="4" t="s">
         <v>731</v>
       </c>
       <c r="C348" s="6" t="s">
         <v>1227</v>
       </c>
-      <c r="D348" s="3" t="s">
+      <c r="D348" s="4" t="s">
         <v>908</v>
       </c>
-      <c r="E348" s="3" t="s">
+      <c r="E348" s="4" t="s">
         <v>1228</v>
       </c>
-      <c r="F348" s="3" t="s">
+      <c r="F348" s="4" t="s">
         <v>1229</v>
       </c>
     </row>
     <row r="349" spans="1:6">
-      <c r="A349" s="4"/>
-      <c r="B349" s="4"/>
+      <c r="A349" s="5"/>
+      <c r="B349" s="5"/>
       <c r="C349" s="7"/>
-      <c r="D349" s="4"/>
-      <c r="E349" s="4"/>
-      <c r="F349" s="4"/>
+      <c r="D349" s="5"/>
+      <c r="E349" s="5"/>
+      <c r="F349" s="5"/>
     </row>
     <row r="350" spans="1:6" ht="132">
       <c r="A350" s="1" t="s">
@@ -11477,7 +11477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="1:6" ht="39.6">
+    <row r="369" spans="1:6" ht="26.4">
       <c r="A369" s="1" t="s">
         <v>391</v>
       </c>
@@ -11597,7 +11597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="1:6" ht="79.2">
+    <row r="375" spans="1:6" ht="52.8">
       <c r="A375" s="1" t="s">
         <v>397</v>
       </c>
@@ -11638,32 +11638,32 @@
       </c>
     </row>
     <row r="377" spans="1:6">
-      <c r="A377" s="3" t="s">
+      <c r="A377" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="B377" s="3" t="s">
+      <c r="B377" s="4" t="s">
         <v>1291</v>
       </c>
       <c r="C377" s="6" t="s">
         <v>1292</v>
       </c>
-      <c r="D377" s="3" t="s">
+      <c r="D377" s="4" t="s">
         <v>766</v>
       </c>
-      <c r="E377" s="3" t="s">
+      <c r="E377" s="4" t="s">
         <v>739</v>
       </c>
-      <c r="F377" s="3" t="s">
+      <c r="F377" s="4" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="378" spans="1:6">
-      <c r="A378" s="4"/>
-      <c r="B378" s="4"/>
+      <c r="A378" s="5"/>
+      <c r="B378" s="5"/>
       <c r="C378" s="7"/>
-      <c r="D378" s="4"/>
-      <c r="E378" s="4"/>
-      <c r="F378" s="4"/>
+      <c r="D378" s="5"/>
+      <c r="E378" s="5"/>
+      <c r="F378" s="5"/>
     </row>
     <row r="379" spans="1:6" ht="39.6">
       <c r="A379" s="1" t="s">
@@ -11685,7 +11685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="380" spans="1:6" ht="66">
+    <row r="380" spans="1:6" ht="52.8">
       <c r="A380" s="1" t="s">
         <v>403</v>
       </c>
@@ -11695,7 +11695,7 @@
       <c r="C380" s="1" t="s">
         <v>1295</v>
       </c>
-      <c r="D380" s="5"/>
+      <c r="D380" s="3"/>
       <c r="E380" s="1" t="s">
         <v>742</v>
       </c>
@@ -11744,88 +11744,88 @@
       </c>
     </row>
     <row r="383" spans="1:6">
-      <c r="A383" s="3" t="s">
+      <c r="A383" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="B383" s="3" t="s">
+      <c r="B383" s="4" t="s">
         <v>1299</v>
       </c>
       <c r="C383" s="6" t="s">
         <v>1300</v>
       </c>
-      <c r="D383" s="3" t="s">
+      <c r="D383" s="4" t="s">
         <v>1301</v>
       </c>
-      <c r="E383" s="3" t="s">
+      <c r="E383" s="4" t="s">
         <v>1302</v>
       </c>
-      <c r="F383" s="3" t="s">
+      <c r="F383" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:6">
-      <c r="A384" s="4"/>
-      <c r="B384" s="4"/>
+      <c r="A384" s="5"/>
+      <c r="B384" s="5"/>
       <c r="C384" s="7"/>
-      <c r="D384" s="4"/>
-      <c r="E384" s="4"/>
-      <c r="F384" s="4"/>
+      <c r="D384" s="5"/>
+      <c r="E384" s="5"/>
+      <c r="F384" s="5"/>
     </row>
     <row r="385" spans="1:6">
-      <c r="A385" s="3" t="s">
+      <c r="A385" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="B385" s="3" t="s">
+      <c r="B385" s="4" t="s">
         <v>1303</v>
       </c>
       <c r="C385" s="6" t="s">
         <v>1304</v>
       </c>
-      <c r="D385" s="3" t="s">
+      <c r="D385" s="4" t="s">
         <v>1305</v>
       </c>
-      <c r="E385" s="3" t="s">
+      <c r="E385" s="4" t="s">
         <v>973</v>
       </c>
-      <c r="F385" s="3" t="s">
+      <c r="F385" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="386" spans="1:6">
-      <c r="A386" s="4"/>
-      <c r="B386" s="4"/>
+      <c r="A386" s="5"/>
+      <c r="B386" s="5"/>
       <c r="C386" s="7"/>
-      <c r="D386" s="4"/>
-      <c r="E386" s="4"/>
-      <c r="F386" s="4"/>
+      <c r="D386" s="5"/>
+      <c r="E386" s="5"/>
+      <c r="F386" s="5"/>
     </row>
     <row r="387" spans="1:6">
-      <c r="A387" s="3" t="s">
+      <c r="A387" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="B387" s="3" t="s">
+      <c r="B387" s="4" t="s">
         <v>1306</v>
       </c>
       <c r="C387" s="6" t="s">
         <v>1307</v>
       </c>
-      <c r="D387" s="3" t="s">
+      <c r="D387" s="4" t="s">
         <v>1305</v>
       </c>
-      <c r="E387" s="3" t="s">
+      <c r="E387" s="4" t="s">
         <v>1308</v>
       </c>
-      <c r="F387" s="3" t="s">
+      <c r="F387" s="4" t="s">
         <v>1309</v>
       </c>
     </row>
     <row r="388" spans="1:6">
-      <c r="A388" s="4"/>
-      <c r="B388" s="4"/>
+      <c r="A388" s="5"/>
+      <c r="B388" s="5"/>
       <c r="C388" s="7"/>
-      <c r="D388" s="4"/>
-      <c r="E388" s="4"/>
-      <c r="F388" s="4"/>
+      <c r="D388" s="5"/>
+      <c r="E388" s="5"/>
+      <c r="F388" s="5"/>
     </row>
     <row r="389" spans="1:6" ht="26.4">
       <c r="A389" s="1" t="s">
@@ -11848,60 +11848,60 @@
       </c>
     </row>
     <row r="390" spans="1:6">
-      <c r="A390" s="3" t="s">
+      <c r="A390" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="B390" s="3" t="s">
+      <c r="B390" s="4" t="s">
         <v>1312</v>
       </c>
       <c r="C390" s="6" t="s">
         <v>1313</v>
       </c>
-      <c r="D390" s="3" t="s">
+      <c r="D390" s="4" t="s">
         <v>1314</v>
       </c>
-      <c r="E390" s="3" t="s">
+      <c r="E390" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="F390" s="3" t="s">
+      <c r="F390" s="4" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="391" spans="1:6">
-      <c r="A391" s="4"/>
-      <c r="B391" s="4"/>
+      <c r="A391" s="5"/>
+      <c r="B391" s="5"/>
       <c r="C391" s="7"/>
-      <c r="D391" s="4"/>
-      <c r="E391" s="4"/>
-      <c r="F391" s="4"/>
+      <c r="D391" s="5"/>
+      <c r="E391" s="5"/>
+      <c r="F391" s="5"/>
     </row>
     <row r="392" spans="1:6">
-      <c r="A392" s="3" t="s">
+      <c r="A392" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="B392" s="3" t="s">
+      <c r="B392" s="4" t="s">
         <v>1315</v>
       </c>
       <c r="C392" s="6" t="s">
         <v>1316</v>
       </c>
-      <c r="D392" s="3" t="s">
+      <c r="D392" s="4" t="s">
         <v>764</v>
       </c>
-      <c r="E392" s="3" t="s">
+      <c r="E392" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="F392" s="3" t="s">
+      <c r="F392" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="393" spans="1:6">
-      <c r="A393" s="4"/>
-      <c r="B393" s="4"/>
+      <c r="A393" s="5"/>
+      <c r="B393" s="5"/>
       <c r="C393" s="7"/>
-      <c r="D393" s="4"/>
-      <c r="E393" s="4"/>
-      <c r="F393" s="4"/>
+      <c r="D393" s="5"/>
+      <c r="E393" s="5"/>
+      <c r="F393" s="5"/>
     </row>
     <row r="394" spans="1:6">
       <c r="A394" s="1" t="s">
@@ -12023,7 +12023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:6" ht="39.6">
+    <row r="400" spans="1:6" ht="26.4">
       <c r="A400" s="1" t="s">
         <v>420</v>
       </c>
@@ -12033,7 +12033,7 @@
       <c r="C400" s="1" t="s">
         <v>1329</v>
       </c>
-      <c r="D400" s="5"/>
+      <c r="D400" s="3"/>
       <c r="E400" s="1" t="s">
         <v>736</v>
       </c>
@@ -12042,88 +12042,88 @@
       </c>
     </row>
     <row r="401" spans="1:6">
-      <c r="A401" s="3" t="s">
+      <c r="A401" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="B401" s="3" t="s">
+      <c r="B401" s="4" t="s">
         <v>1330</v>
       </c>
       <c r="C401" s="6" t="s">
         <v>1331</v>
       </c>
-      <c r="D401" s="3" t="s">
+      <c r="D401" s="4" t="s">
         <v>896</v>
       </c>
-      <c r="E401" s="3" t="s">
+      <c r="E401" s="4" t="s">
         <v>1090</v>
       </c>
-      <c r="F401" s="3" t="s">
+      <c r="F401" s="4" t="s">
         <v>1332</v>
       </c>
     </row>
     <row r="402" spans="1:6">
-      <c r="A402" s="4"/>
-      <c r="B402" s="4"/>
+      <c r="A402" s="5"/>
+      <c r="B402" s="5"/>
       <c r="C402" s="7"/>
-      <c r="D402" s="4"/>
-      <c r="E402" s="4"/>
-      <c r="F402" s="4"/>
+      <c r="D402" s="5"/>
+      <c r="E402" s="5"/>
+      <c r="F402" s="5"/>
     </row>
     <row r="403" spans="1:6">
-      <c r="A403" s="3" t="s">
+      <c r="A403" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="B403" s="3" t="s">
+      <c r="B403" s="4" t="s">
         <v>1333</v>
       </c>
       <c r="C403" s="6" t="s">
         <v>1334</v>
       </c>
-      <c r="D403" s="3" t="s">
+      <c r="D403" s="4" t="s">
         <v>1335</v>
       </c>
-      <c r="E403" s="3" t="s">
+      <c r="E403" s="4" t="s">
         <v>973</v>
       </c>
-      <c r="F403" s="3" t="s">
+      <c r="F403" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="404" spans="1:6">
-      <c r="A404" s="4"/>
-      <c r="B404" s="4"/>
+      <c r="A404" s="5"/>
+      <c r="B404" s="5"/>
       <c r="C404" s="7"/>
-      <c r="D404" s="4"/>
-      <c r="E404" s="4"/>
-      <c r="F404" s="4"/>
+      <c r="D404" s="5"/>
+      <c r="E404" s="5"/>
+      <c r="F404" s="5"/>
     </row>
     <row r="405" spans="1:6">
-      <c r="A405" s="3" t="s">
+      <c r="A405" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="B405" s="3" t="s">
+      <c r="B405" s="4" t="s">
         <v>1336</v>
       </c>
       <c r="C405" s="6" t="s">
         <v>1337</v>
       </c>
-      <c r="D405" s="3" t="s">
+      <c r="D405" s="4" t="s">
         <v>1338</v>
       </c>
-      <c r="E405" s="3" t="s">
+      <c r="E405" s="4" t="s">
         <v>1339</v>
       </c>
-      <c r="F405" s="3" t="s">
+      <c r="F405" s="4" t="s">
         <v>1340</v>
       </c>
     </row>
     <row r="406" spans="1:6">
-      <c r="A406" s="4"/>
-      <c r="B406" s="4"/>
+      <c r="A406" s="5"/>
+      <c r="B406" s="5"/>
       <c r="C406" s="7"/>
-      <c r="D406" s="4"/>
-      <c r="E406" s="4"/>
-      <c r="F406" s="4"/>
+      <c r="D406" s="5"/>
+      <c r="E406" s="5"/>
+      <c r="F406" s="5"/>
     </row>
     <row r="407" spans="1:6" ht="118.8">
       <c r="A407" s="1" t="s">
@@ -12145,7 +12145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="408" spans="1:6" ht="26.4">
+    <row r="408" spans="1:6">
       <c r="A408" s="1" t="s">
         <v>425</v>
       </c>
@@ -12166,60 +12166,60 @@
       </c>
     </row>
     <row r="409" spans="1:6">
-      <c r="A409" s="3" t="s">
+      <c r="A409" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="B409" s="3" t="s">
+      <c r="B409" s="4" t="s">
         <v>1347</v>
       </c>
       <c r="C409" s="6" t="s">
         <v>1348</v>
       </c>
-      <c r="D409" s="3" t="s">
+      <c r="D409" s="4" t="s">
         <v>1349</v>
       </c>
-      <c r="E409" s="3" t="s">
+      <c r="E409" s="4" t="s">
         <v>1350</v>
       </c>
-      <c r="F409" s="3" t="s">
+      <c r="F409" s="4" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="410" spans="1:6">
-      <c r="A410" s="4"/>
-      <c r="B410" s="4"/>
+      <c r="A410" s="5"/>
+      <c r="B410" s="5"/>
       <c r="C410" s="7"/>
-      <c r="D410" s="4"/>
-      <c r="E410" s="4"/>
-      <c r="F410" s="4"/>
+      <c r="D410" s="5"/>
+      <c r="E410" s="5"/>
+      <c r="F410" s="5"/>
     </row>
     <row r="411" spans="1:6">
-      <c r="A411" s="3" t="s">
+      <c r="A411" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="B411" s="3" t="s">
+      <c r="B411" s="4" t="s">
         <v>1351</v>
       </c>
       <c r="C411" s="6" t="s">
         <v>1352</v>
       </c>
-      <c r="D411" s="3" t="s">
+      <c r="D411" s="4" t="s">
         <v>1353</v>
       </c>
-      <c r="E411" s="3" t="s">
+      <c r="E411" s="4" t="s">
         <v>1354</v>
       </c>
-      <c r="F411" s="3" t="s">
+      <c r="F411" s="4" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="412" spans="1:6">
-      <c r="A412" s="4"/>
-      <c r="B412" s="4"/>
+      <c r="A412" s="5"/>
+      <c r="B412" s="5"/>
       <c r="C412" s="7"/>
-      <c r="D412" s="4"/>
-      <c r="E412" s="4"/>
-      <c r="F412" s="4"/>
+      <c r="D412" s="5"/>
+      <c r="E412" s="5"/>
+      <c r="F412" s="5"/>
     </row>
     <row r="413" spans="1:6" ht="26.4">
       <c r="A413" s="1" t="s">
@@ -12242,32 +12242,32 @@
       </c>
     </row>
     <row r="414" spans="1:6">
-      <c r="A414" s="3" t="s">
+      <c r="A414" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="B414" s="3" t="s">
+      <c r="B414" s="4" t="s">
         <v>1356</v>
       </c>
       <c r="C414" s="6" t="s">
         <v>1357</v>
       </c>
-      <c r="D414" s="3" t="s">
+      <c r="D414" s="4" t="s">
         <v>1358</v>
       </c>
-      <c r="E414" s="3" t="s">
+      <c r="E414" s="4" t="s">
         <v>1039</v>
       </c>
-      <c r="F414" s="3" t="s">
+      <c r="F414" s="4" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="415" spans="1:6">
-      <c r="A415" s="4"/>
-      <c r="B415" s="4"/>
+      <c r="A415" s="5"/>
+      <c r="B415" s="5"/>
       <c r="C415" s="7"/>
-      <c r="D415" s="4"/>
-      <c r="E415" s="4"/>
-      <c r="F415" s="4"/>
+      <c r="D415" s="5"/>
+      <c r="E415" s="5"/>
+      <c r="F415" s="5"/>
     </row>
     <row r="416" spans="1:6" ht="26.4">
       <c r="A416" s="1" t="s">
@@ -12290,32 +12290,32 @@
       </c>
     </row>
     <row r="417" spans="1:6">
-      <c r="A417" s="3" t="s">
+      <c r="A417" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="B417" s="3" t="s">
+      <c r="B417" s="4" t="s">
         <v>1361</v>
       </c>
       <c r="C417" s="6" t="s">
         <v>1362</v>
       </c>
-      <c r="D417" s="3" t="s">
+      <c r="D417" s="4" t="s">
         <v>1363</v>
       </c>
-      <c r="E417" s="3" t="s">
+      <c r="E417" s="4" t="s">
         <v>1364</v>
       </c>
-      <c r="F417" s="3" t="s">
+      <c r="F417" s="4" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="418" spans="1:6">
-      <c r="A418" s="4"/>
-      <c r="B418" s="4"/>
+      <c r="A418" s="5"/>
+      <c r="B418" s="5"/>
       <c r="C418" s="7"/>
-      <c r="D418" s="4"/>
-      <c r="E418" s="4"/>
-      <c r="F418" s="4"/>
+      <c r="D418" s="5"/>
+      <c r="E418" s="5"/>
+      <c r="F418" s="5"/>
     </row>
     <row r="419" spans="1:6" ht="39.6">
       <c r="A419" s="1" t="s">
@@ -12338,32 +12338,32 @@
       </c>
     </row>
     <row r="420" spans="1:6">
-      <c r="A420" s="3" t="s">
+      <c r="A420" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="B420" s="3" t="s">
+      <c r="B420" s="4" t="s">
         <v>1367</v>
       </c>
       <c r="C420" s="6" t="s">
         <v>1368</v>
       </c>
-      <c r="D420" s="3" t="s">
+      <c r="D420" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="E420" s="3" t="s">
+      <c r="E420" s="4" t="s">
         <v>806</v>
       </c>
-      <c r="F420" s="3" t="s">
+      <c r="F420" s="4" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="421" spans="1:6">
-      <c r="A421" s="4"/>
-      <c r="B421" s="4"/>
+      <c r="A421" s="5"/>
+      <c r="B421" s="5"/>
       <c r="C421" s="7"/>
-      <c r="D421" s="4"/>
-      <c r="E421" s="4"/>
-      <c r="F421" s="4"/>
+      <c r="D421" s="5"/>
+      <c r="E421" s="5"/>
+      <c r="F421" s="5"/>
     </row>
     <row r="422" spans="1:6" ht="26.4">
       <c r="A422" s="1" t="s">
@@ -12386,34 +12386,34 @@
       </c>
     </row>
     <row r="423" spans="1:6">
-      <c r="A423" s="3" t="s">
+      <c r="A423" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="B423" s="3" t="s">
+      <c r="B423" s="4" t="s">
         <v>1370</v>
       </c>
       <c r="C423" s="6" t="s">
         <v>1371</v>
       </c>
-      <c r="D423" s="3" t="s">
+      <c r="D423" s="4" t="s">
         <v>896</v>
       </c>
-      <c r="E423" s="3" t="s">
+      <c r="E423" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="F423" s="3" t="s">
+      <c r="F423" s="4" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="424" spans="1:6">
-      <c r="A424" s="4"/>
-      <c r="B424" s="4"/>
+      <c r="A424" s="5"/>
+      <c r="B424" s="5"/>
       <c r="C424" s="7"/>
-      <c r="D424" s="4"/>
-      <c r="E424" s="4"/>
-      <c r="F424" s="4"/>
-    </row>
-    <row r="425" spans="1:6" ht="39.6">
+      <c r="D424" s="5"/>
+      <c r="E424" s="5"/>
+      <c r="F424" s="5"/>
+    </row>
+    <row r="425" spans="1:6" ht="26.4">
       <c r="A425" s="1" t="s">
         <v>440</v>
       </c>
@@ -12434,32 +12434,32 @@
       </c>
     </row>
     <row r="426" spans="1:6">
-      <c r="A426" s="3" t="s">
+      <c r="A426" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="B426" s="3" t="s">
+      <c r="B426" s="4" t="s">
         <v>1375</v>
       </c>
       <c r="C426" s="6" t="s">
         <v>1376</v>
       </c>
-      <c r="D426" s="3" t="s">
+      <c r="D426" s="4" t="s">
         <v>1377</v>
       </c>
-      <c r="E426" s="3" t="s">
+      <c r="E426" s="4" t="s">
         <v>1378</v>
       </c>
-      <c r="F426" s="3" t="s">
+      <c r="F426" s="4" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="427" spans="1:6">
-      <c r="A427" s="4"/>
-      <c r="B427" s="4"/>
+      <c r="A427" s="5"/>
+      <c r="B427" s="5"/>
       <c r="C427" s="7"/>
-      <c r="D427" s="4"/>
-      <c r="E427" s="4"/>
-      <c r="F427" s="4"/>
+      <c r="D427" s="5"/>
+      <c r="E427" s="5"/>
+      <c r="F427" s="5"/>
     </row>
     <row r="428" spans="1:6" ht="52.8">
       <c r="A428" s="1" t="s">
@@ -12482,32 +12482,32 @@
       </c>
     </row>
     <row r="429" spans="1:6">
-      <c r="A429" s="3" t="s">
+      <c r="A429" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="B429" s="3" t="s">
+      <c r="B429" s="4" t="s">
         <v>1382</v>
       </c>
       <c r="C429" s="6" t="s">
         <v>1383</v>
       </c>
-      <c r="D429" s="3" t="s">
+      <c r="D429" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="E429" s="3" t="s">
+      <c r="E429" s="4" t="s">
         <v>1142</v>
       </c>
-      <c r="F429" s="3" t="s">
+      <c r="F429" s="4" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="430" spans="1:6">
-      <c r="A430" s="4"/>
-      <c r="B430" s="4"/>
+      <c r="A430" s="5"/>
+      <c r="B430" s="5"/>
       <c r="C430" s="7"/>
-      <c r="D430" s="4"/>
-      <c r="E430" s="4"/>
-      <c r="F430" s="4"/>
+      <c r="D430" s="5"/>
+      <c r="E430" s="5"/>
+      <c r="F430" s="5"/>
     </row>
     <row r="431" spans="1:6" ht="66">
       <c r="A431" s="1" t="s">
@@ -12530,32 +12530,32 @@
       </c>
     </row>
     <row r="432" spans="1:6">
-      <c r="A432" s="3" t="s">
+      <c r="A432" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="B432" s="3" t="s">
+      <c r="B432" s="4" t="s">
         <v>1386</v>
       </c>
       <c r="C432" s="6" t="s">
         <v>1387</v>
       </c>
-      <c r="D432" s="3" t="s">
+      <c r="D432" s="4" t="s">
         <v>1388</v>
       </c>
-      <c r="E432" s="3" t="s">
+      <c r="E432" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="F432" s="3" t="s">
+      <c r="F432" s="4" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="433" spans="1:6">
-      <c r="A433" s="4"/>
-      <c r="B433" s="4"/>
+      <c r="A433" s="5"/>
+      <c r="B433" s="5"/>
       <c r="C433" s="7"/>
-      <c r="D433" s="4"/>
-      <c r="E433" s="4"/>
-      <c r="F433" s="4"/>
+      <c r="D433" s="5"/>
+      <c r="E433" s="5"/>
+      <c r="F433" s="5"/>
     </row>
     <row r="434" spans="1:6" ht="39.6">
       <c r="A434" s="1" t="s">
@@ -12578,32 +12578,32 @@
       </c>
     </row>
     <row r="435" spans="1:6">
-      <c r="A435" s="3" t="s">
+      <c r="A435" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="B435" s="3" t="s">
+      <c r="B435" s="4" t="s">
         <v>1391</v>
       </c>
       <c r="C435" s="6" t="s">
         <v>1392</v>
       </c>
-      <c r="D435" s="3" t="s">
+      <c r="D435" s="4" t="s">
         <v>1393</v>
       </c>
-      <c r="E435" s="3" t="s">
+      <c r="E435" s="4" t="s">
         <v>1394</v>
       </c>
-      <c r="F435" s="3" t="s">
+      <c r="F435" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="436" spans="1:6">
-      <c r="A436" s="4"/>
-      <c r="B436" s="4"/>
+      <c r="A436" s="5"/>
+      <c r="B436" s="5"/>
       <c r="C436" s="7"/>
-      <c r="D436" s="4"/>
-      <c r="E436" s="4"/>
-      <c r="F436" s="4"/>
+      <c r="D436" s="5"/>
+      <c r="E436" s="5"/>
+      <c r="F436" s="5"/>
     </row>
     <row r="437" spans="1:6" ht="26.4">
       <c r="A437" s="1" t="s">
@@ -12646,7 +12646,7 @@
       </c>
     </row>
     <row r="439" spans="1:6">
-      <c r="A439" s="3" t="s">
+      <c r="A439" s="4" t="s">
         <v>454</v>
       </c>
       <c r="B439" s="6" t="s">
@@ -12655,23 +12655,23 @@
       <c r="C439" s="6" t="s">
         <v>1400</v>
       </c>
-      <c r="D439" s="3" t="s">
+      <c r="D439" s="4" t="s">
         <v>1401</v>
       </c>
-      <c r="E439" s="3" t="s">
+      <c r="E439" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="F439" s="3" t="s">
+      <c r="F439" s="4" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="440" spans="1:6">
-      <c r="A440" s="4"/>
+      <c r="A440" s="5"/>
       <c r="B440" s="7"/>
       <c r="C440" s="7"/>
-      <c r="D440" s="4"/>
-      <c r="E440" s="4"/>
-      <c r="F440" s="4"/>
+      <c r="D440" s="5"/>
+      <c r="E440" s="5"/>
+      <c r="F440" s="5"/>
     </row>
     <row r="441" spans="1:6" ht="26.4">
       <c r="A441" s="1" t="s">
@@ -12695,16 +12695,510 @@
     </row>
   </sheetData>
   <mergeCells count="546">
-    <mergeCell ref="E439:E440"/>
-    <mergeCell ref="F439:F440"/>
-    <mergeCell ref="E432:E433"/>
-    <mergeCell ref="F432:F433"/>
-    <mergeCell ref="A435:A436"/>
-    <mergeCell ref="B435:B436"/>
-    <mergeCell ref="C435:C436"/>
-    <mergeCell ref="D435:D436"/>
-    <mergeCell ref="E435:E436"/>
-    <mergeCell ref="F435:F436"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A390:A391"/>
+    <mergeCell ref="B390:B391"/>
+    <mergeCell ref="C390:C391"/>
+    <mergeCell ref="D390:D391"/>
+    <mergeCell ref="E390:E391"/>
+    <mergeCell ref="F390:F391"/>
+    <mergeCell ref="A385:A386"/>
+    <mergeCell ref="B385:B386"/>
+    <mergeCell ref="C385:C386"/>
+    <mergeCell ref="D385:D386"/>
+    <mergeCell ref="A409:A410"/>
+    <mergeCell ref="B409:B410"/>
+    <mergeCell ref="C409:C410"/>
+    <mergeCell ref="D409:D410"/>
+    <mergeCell ref="E409:E410"/>
+    <mergeCell ref="F409:F410"/>
+    <mergeCell ref="A403:A404"/>
+    <mergeCell ref="B403:B404"/>
+    <mergeCell ref="C403:C404"/>
+    <mergeCell ref="D403:D404"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="F147:F148"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="D149:D150"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="F149:F150"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="E157:E158"/>
+    <mergeCell ref="F157:F158"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="D160:D161"/>
+    <mergeCell ref="E160:E161"/>
+    <mergeCell ref="F160:F161"/>
+    <mergeCell ref="E153:E154"/>
+    <mergeCell ref="F153:F154"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="D155:D156"/>
+    <mergeCell ref="E155:E156"/>
+    <mergeCell ref="F155:F156"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="D153:D154"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="E170:E171"/>
+    <mergeCell ref="F170:F171"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="C187:C188"/>
+    <mergeCell ref="D187:D188"/>
+    <mergeCell ref="E187:E188"/>
+    <mergeCell ref="F187:F188"/>
+    <mergeCell ref="E165:E166"/>
+    <mergeCell ref="F165:F166"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="D167:D168"/>
+    <mergeCell ref="E167:E168"/>
+    <mergeCell ref="F167:F168"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="D170:D171"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="D165:D166"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="E198:E199"/>
+    <mergeCell ref="F198:F199"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="B202:B203"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="E202:E203"/>
+    <mergeCell ref="F202:F203"/>
+    <mergeCell ref="E191:E192"/>
+    <mergeCell ref="F191:F192"/>
+    <mergeCell ref="A195:A196"/>
+    <mergeCell ref="B195:B196"/>
+    <mergeCell ref="C195:C196"/>
+    <mergeCell ref="D195:D196"/>
+    <mergeCell ref="E195:E196"/>
+    <mergeCell ref="F195:F196"/>
+    <mergeCell ref="C198:C199"/>
+    <mergeCell ref="D198:D199"/>
+    <mergeCell ref="C191:C192"/>
+    <mergeCell ref="D191:D192"/>
+    <mergeCell ref="A198:A199"/>
+    <mergeCell ref="B198:B199"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="B191:B192"/>
+    <mergeCell ref="E223:E224"/>
+    <mergeCell ref="F223:F224"/>
+    <mergeCell ref="A227:A228"/>
+    <mergeCell ref="B227:B228"/>
+    <mergeCell ref="C227:C228"/>
+    <mergeCell ref="D227:D228"/>
+    <mergeCell ref="E227:E228"/>
+    <mergeCell ref="F227:F228"/>
+    <mergeCell ref="E206:E207"/>
+    <mergeCell ref="F206:F207"/>
+    <mergeCell ref="A212:A213"/>
+    <mergeCell ref="B212:B213"/>
+    <mergeCell ref="C212:C213"/>
+    <mergeCell ref="D212:D213"/>
+    <mergeCell ref="E212:E213"/>
+    <mergeCell ref="F212:F213"/>
+    <mergeCell ref="C223:C224"/>
+    <mergeCell ref="D223:D224"/>
+    <mergeCell ref="C206:C207"/>
+    <mergeCell ref="D206:D207"/>
+    <mergeCell ref="A206:A207"/>
+    <mergeCell ref="B206:B207"/>
+    <mergeCell ref="A223:A224"/>
+    <mergeCell ref="B223:B224"/>
+    <mergeCell ref="E248:E249"/>
+    <mergeCell ref="F248:F249"/>
+    <mergeCell ref="A256:A257"/>
+    <mergeCell ref="B256:B257"/>
+    <mergeCell ref="C256:C257"/>
+    <mergeCell ref="D256:D257"/>
+    <mergeCell ref="E256:E257"/>
+    <mergeCell ref="F256:F257"/>
+    <mergeCell ref="E236:E237"/>
+    <mergeCell ref="F236:F237"/>
+    <mergeCell ref="A238:A239"/>
+    <mergeCell ref="B238:B239"/>
+    <mergeCell ref="C238:C239"/>
+    <mergeCell ref="D238:D239"/>
+    <mergeCell ref="E238:E239"/>
+    <mergeCell ref="F238:F239"/>
+    <mergeCell ref="C248:C249"/>
+    <mergeCell ref="D248:D249"/>
+    <mergeCell ref="C236:C237"/>
+    <mergeCell ref="D236:D237"/>
+    <mergeCell ref="A248:A249"/>
+    <mergeCell ref="B248:B249"/>
+    <mergeCell ref="A236:A237"/>
+    <mergeCell ref="B236:B237"/>
+    <mergeCell ref="E269:E270"/>
+    <mergeCell ref="F269:F270"/>
+    <mergeCell ref="A271:A272"/>
+    <mergeCell ref="B271:B272"/>
+    <mergeCell ref="C271:C272"/>
+    <mergeCell ref="D271:D272"/>
+    <mergeCell ref="E271:E272"/>
+    <mergeCell ref="F271:F272"/>
+    <mergeCell ref="E259:E260"/>
+    <mergeCell ref="F259:F260"/>
+    <mergeCell ref="A265:A266"/>
+    <mergeCell ref="B265:B266"/>
+    <mergeCell ref="C265:C266"/>
+    <mergeCell ref="D265:D266"/>
+    <mergeCell ref="E265:E266"/>
+    <mergeCell ref="F265:F266"/>
+    <mergeCell ref="C269:C270"/>
+    <mergeCell ref="D269:D270"/>
+    <mergeCell ref="C259:C260"/>
+    <mergeCell ref="D259:D260"/>
+    <mergeCell ref="A269:A270"/>
+    <mergeCell ref="B269:B270"/>
+    <mergeCell ref="A259:A260"/>
+    <mergeCell ref="B259:B260"/>
+    <mergeCell ref="E283:E284"/>
+    <mergeCell ref="F283:F284"/>
+    <mergeCell ref="A285:A286"/>
+    <mergeCell ref="B285:B286"/>
+    <mergeCell ref="C285:C286"/>
+    <mergeCell ref="D285:D286"/>
+    <mergeCell ref="E285:E286"/>
+    <mergeCell ref="F285:F286"/>
+    <mergeCell ref="E278:E279"/>
+    <mergeCell ref="F278:F279"/>
+    <mergeCell ref="A280:A281"/>
+    <mergeCell ref="B280:B281"/>
+    <mergeCell ref="C280:C281"/>
+    <mergeCell ref="D280:D281"/>
+    <mergeCell ref="E280:E281"/>
+    <mergeCell ref="F280:F281"/>
+    <mergeCell ref="C283:C284"/>
+    <mergeCell ref="D283:D284"/>
+    <mergeCell ref="C278:C279"/>
+    <mergeCell ref="D278:D279"/>
+    <mergeCell ref="A283:A284"/>
+    <mergeCell ref="B283:B284"/>
+    <mergeCell ref="A278:A279"/>
+    <mergeCell ref="B278:B279"/>
+    <mergeCell ref="E294:E295"/>
+    <mergeCell ref="F294:F295"/>
+    <mergeCell ref="A296:A297"/>
+    <mergeCell ref="B296:B297"/>
+    <mergeCell ref="C296:C297"/>
+    <mergeCell ref="D296:D297"/>
+    <mergeCell ref="E296:E297"/>
+    <mergeCell ref="F296:F297"/>
+    <mergeCell ref="E287:E288"/>
+    <mergeCell ref="F287:F288"/>
+    <mergeCell ref="A289:A290"/>
+    <mergeCell ref="B289:B290"/>
+    <mergeCell ref="C289:C290"/>
+    <mergeCell ref="D289:D290"/>
+    <mergeCell ref="E289:E290"/>
+    <mergeCell ref="F289:F290"/>
+    <mergeCell ref="C294:C295"/>
+    <mergeCell ref="D294:D295"/>
+    <mergeCell ref="C287:C288"/>
+    <mergeCell ref="D287:D288"/>
+    <mergeCell ref="A294:A295"/>
+    <mergeCell ref="B294:B295"/>
+    <mergeCell ref="A287:A288"/>
+    <mergeCell ref="B287:B288"/>
+    <mergeCell ref="E302:E303"/>
+    <mergeCell ref="F302:F303"/>
+    <mergeCell ref="A305:A306"/>
+    <mergeCell ref="B305:B306"/>
+    <mergeCell ref="C305:C306"/>
+    <mergeCell ref="D305:D306"/>
+    <mergeCell ref="E305:E306"/>
+    <mergeCell ref="F305:F306"/>
+    <mergeCell ref="E298:E299"/>
+    <mergeCell ref="F298:F299"/>
+    <mergeCell ref="A300:A301"/>
+    <mergeCell ref="B300:B301"/>
+    <mergeCell ref="C300:C301"/>
+    <mergeCell ref="D300:D301"/>
+    <mergeCell ref="E300:E301"/>
+    <mergeCell ref="F300:F301"/>
+    <mergeCell ref="C302:C303"/>
+    <mergeCell ref="D302:D303"/>
+    <mergeCell ref="C298:C299"/>
+    <mergeCell ref="D298:D299"/>
+    <mergeCell ref="A298:A299"/>
+    <mergeCell ref="B298:B299"/>
+    <mergeCell ref="A302:A303"/>
+    <mergeCell ref="B302:B303"/>
+    <mergeCell ref="E314:E315"/>
+    <mergeCell ref="F314:F315"/>
+    <mergeCell ref="A323:A324"/>
+    <mergeCell ref="B323:B324"/>
+    <mergeCell ref="C323:C324"/>
+    <mergeCell ref="D323:D324"/>
+    <mergeCell ref="E323:E324"/>
+    <mergeCell ref="F323:F324"/>
+    <mergeCell ref="E308:E309"/>
+    <mergeCell ref="F308:F309"/>
+    <mergeCell ref="A311:A312"/>
+    <mergeCell ref="B311:B312"/>
+    <mergeCell ref="C311:C312"/>
+    <mergeCell ref="D311:D312"/>
+    <mergeCell ref="E311:E312"/>
+    <mergeCell ref="F311:F312"/>
+    <mergeCell ref="C314:C315"/>
+    <mergeCell ref="D314:D315"/>
+    <mergeCell ref="C308:C309"/>
+    <mergeCell ref="D308:D309"/>
+    <mergeCell ref="A308:A309"/>
+    <mergeCell ref="B308:B309"/>
+    <mergeCell ref="A314:A315"/>
+    <mergeCell ref="B314:B315"/>
+    <mergeCell ref="E332:E333"/>
+    <mergeCell ref="F332:F333"/>
+    <mergeCell ref="A334:A335"/>
+    <mergeCell ref="B334:B335"/>
+    <mergeCell ref="C334:C335"/>
+    <mergeCell ref="D334:D335"/>
+    <mergeCell ref="E334:E335"/>
+    <mergeCell ref="F334:F335"/>
+    <mergeCell ref="E326:E327"/>
+    <mergeCell ref="F326:F327"/>
+    <mergeCell ref="A330:A331"/>
+    <mergeCell ref="B330:B331"/>
+    <mergeCell ref="C330:C331"/>
+    <mergeCell ref="D330:D331"/>
+    <mergeCell ref="E330:E331"/>
+    <mergeCell ref="F330:F331"/>
+    <mergeCell ref="C332:C333"/>
+    <mergeCell ref="D332:D333"/>
+    <mergeCell ref="C326:C327"/>
+    <mergeCell ref="D326:D327"/>
+    <mergeCell ref="A332:A333"/>
+    <mergeCell ref="B332:B333"/>
+    <mergeCell ref="A326:A327"/>
+    <mergeCell ref="B326:B327"/>
+    <mergeCell ref="A348:A349"/>
+    <mergeCell ref="B348:B349"/>
+    <mergeCell ref="C348:C349"/>
+    <mergeCell ref="D348:D349"/>
+    <mergeCell ref="E348:E349"/>
+    <mergeCell ref="F348:F349"/>
+    <mergeCell ref="E339:E340"/>
+    <mergeCell ref="F339:F340"/>
+    <mergeCell ref="A344:A345"/>
+    <mergeCell ref="B344:B345"/>
+    <mergeCell ref="C344:C345"/>
+    <mergeCell ref="D344:D345"/>
+    <mergeCell ref="E344:E345"/>
+    <mergeCell ref="F344:F345"/>
+    <mergeCell ref="C339:C340"/>
+    <mergeCell ref="D339:D340"/>
+    <mergeCell ref="A339:A340"/>
+    <mergeCell ref="B339:B340"/>
+    <mergeCell ref="E385:E386"/>
+    <mergeCell ref="F385:F386"/>
+    <mergeCell ref="A387:A388"/>
+    <mergeCell ref="B387:B388"/>
+    <mergeCell ref="C387:C388"/>
+    <mergeCell ref="D387:D388"/>
+    <mergeCell ref="E387:E388"/>
+    <mergeCell ref="F387:F388"/>
+    <mergeCell ref="A377:A378"/>
+    <mergeCell ref="B377:B378"/>
+    <mergeCell ref="C377:C378"/>
+    <mergeCell ref="D377:D378"/>
+    <mergeCell ref="E377:E378"/>
+    <mergeCell ref="F377:F378"/>
+    <mergeCell ref="A383:A384"/>
+    <mergeCell ref="B383:B384"/>
+    <mergeCell ref="C383:C384"/>
+    <mergeCell ref="D383:D384"/>
+    <mergeCell ref="E383:E384"/>
+    <mergeCell ref="F383:F384"/>
+    <mergeCell ref="E403:E404"/>
+    <mergeCell ref="F403:F404"/>
+    <mergeCell ref="A405:A406"/>
+    <mergeCell ref="B405:B406"/>
+    <mergeCell ref="C405:C406"/>
+    <mergeCell ref="D405:D406"/>
+    <mergeCell ref="E405:E406"/>
+    <mergeCell ref="F405:F406"/>
+    <mergeCell ref="A392:A393"/>
+    <mergeCell ref="B392:B393"/>
+    <mergeCell ref="C392:C393"/>
+    <mergeCell ref="D392:D393"/>
+    <mergeCell ref="E392:E393"/>
+    <mergeCell ref="F392:F393"/>
+    <mergeCell ref="A401:A402"/>
+    <mergeCell ref="B401:B402"/>
+    <mergeCell ref="C401:C402"/>
+    <mergeCell ref="D401:D402"/>
+    <mergeCell ref="E401:E402"/>
+    <mergeCell ref="F401:F402"/>
+    <mergeCell ref="E414:E415"/>
+    <mergeCell ref="F414:F415"/>
+    <mergeCell ref="A417:A418"/>
+    <mergeCell ref="B417:B418"/>
+    <mergeCell ref="C417:C418"/>
+    <mergeCell ref="D417:D418"/>
+    <mergeCell ref="E417:E418"/>
+    <mergeCell ref="F417:F418"/>
+    <mergeCell ref="A411:A412"/>
+    <mergeCell ref="B411:B412"/>
+    <mergeCell ref="C411:C412"/>
+    <mergeCell ref="D411:D412"/>
+    <mergeCell ref="E411:E412"/>
+    <mergeCell ref="F411:F412"/>
+    <mergeCell ref="A414:A415"/>
+    <mergeCell ref="B414:B415"/>
+    <mergeCell ref="C414:C415"/>
+    <mergeCell ref="D414:D415"/>
     <mergeCell ref="E426:E427"/>
     <mergeCell ref="F426:F427"/>
     <mergeCell ref="A429:A430"/>
@@ -12721,326 +13215,24 @@
     <mergeCell ref="D423:D424"/>
     <mergeCell ref="E423:E424"/>
     <mergeCell ref="F423:F424"/>
-    <mergeCell ref="E414:E415"/>
-    <mergeCell ref="F414:F415"/>
-    <mergeCell ref="A417:A418"/>
-    <mergeCell ref="B417:B418"/>
-    <mergeCell ref="C417:C418"/>
-    <mergeCell ref="D417:D418"/>
-    <mergeCell ref="E417:E418"/>
-    <mergeCell ref="F417:F418"/>
-    <mergeCell ref="A411:A412"/>
-    <mergeCell ref="B411:B412"/>
-    <mergeCell ref="C411:C412"/>
-    <mergeCell ref="D411:D412"/>
-    <mergeCell ref="E411:E412"/>
-    <mergeCell ref="F411:F412"/>
-    <mergeCell ref="E403:E404"/>
-    <mergeCell ref="F403:F404"/>
-    <mergeCell ref="A405:A406"/>
-    <mergeCell ref="B405:B406"/>
-    <mergeCell ref="C405:C406"/>
-    <mergeCell ref="D405:D406"/>
-    <mergeCell ref="E405:E406"/>
-    <mergeCell ref="F405:F406"/>
-    <mergeCell ref="A392:A393"/>
-    <mergeCell ref="B392:B393"/>
-    <mergeCell ref="C392:C393"/>
-    <mergeCell ref="D392:D393"/>
-    <mergeCell ref="E392:E393"/>
-    <mergeCell ref="F392:F393"/>
-    <mergeCell ref="E385:E386"/>
-    <mergeCell ref="F385:F386"/>
-    <mergeCell ref="A387:A388"/>
-    <mergeCell ref="B387:B388"/>
-    <mergeCell ref="C387:C388"/>
-    <mergeCell ref="D387:D388"/>
-    <mergeCell ref="E387:E388"/>
-    <mergeCell ref="F387:F388"/>
-    <mergeCell ref="A377:A378"/>
-    <mergeCell ref="B377:B378"/>
-    <mergeCell ref="C377:C378"/>
-    <mergeCell ref="D377:D378"/>
-    <mergeCell ref="E377:E378"/>
-    <mergeCell ref="F377:F378"/>
-    <mergeCell ref="A348:A349"/>
-    <mergeCell ref="B348:B349"/>
-    <mergeCell ref="C348:C349"/>
-    <mergeCell ref="D348:D349"/>
-    <mergeCell ref="E348:E349"/>
-    <mergeCell ref="F348:F349"/>
-    <mergeCell ref="E339:E340"/>
-    <mergeCell ref="F339:F340"/>
-    <mergeCell ref="A344:A345"/>
-    <mergeCell ref="B344:B345"/>
-    <mergeCell ref="C344:C345"/>
-    <mergeCell ref="D344:D345"/>
-    <mergeCell ref="E344:E345"/>
-    <mergeCell ref="F344:F345"/>
-    <mergeCell ref="E332:E333"/>
-    <mergeCell ref="F332:F333"/>
-    <mergeCell ref="A334:A335"/>
-    <mergeCell ref="B334:B335"/>
-    <mergeCell ref="C334:C335"/>
-    <mergeCell ref="D334:D335"/>
-    <mergeCell ref="E334:E335"/>
-    <mergeCell ref="F334:F335"/>
-    <mergeCell ref="E326:E327"/>
-    <mergeCell ref="F326:F327"/>
-    <mergeCell ref="A330:A331"/>
-    <mergeCell ref="B330:B331"/>
-    <mergeCell ref="C330:C331"/>
-    <mergeCell ref="D330:D331"/>
-    <mergeCell ref="E330:E331"/>
-    <mergeCell ref="F330:F331"/>
-    <mergeCell ref="E314:E315"/>
-    <mergeCell ref="F314:F315"/>
-    <mergeCell ref="A323:A324"/>
-    <mergeCell ref="B323:B324"/>
-    <mergeCell ref="C323:C324"/>
-    <mergeCell ref="D323:D324"/>
-    <mergeCell ref="E323:E324"/>
-    <mergeCell ref="F323:F324"/>
-    <mergeCell ref="E308:E309"/>
-    <mergeCell ref="F308:F309"/>
-    <mergeCell ref="A311:A312"/>
-    <mergeCell ref="B311:B312"/>
-    <mergeCell ref="C311:C312"/>
-    <mergeCell ref="D311:D312"/>
-    <mergeCell ref="E311:E312"/>
-    <mergeCell ref="F311:F312"/>
-    <mergeCell ref="E302:E303"/>
-    <mergeCell ref="F302:F303"/>
-    <mergeCell ref="A305:A306"/>
-    <mergeCell ref="B305:B306"/>
-    <mergeCell ref="C305:C306"/>
-    <mergeCell ref="D305:D306"/>
-    <mergeCell ref="E305:E306"/>
-    <mergeCell ref="F305:F306"/>
-    <mergeCell ref="E298:E299"/>
-    <mergeCell ref="F298:F299"/>
-    <mergeCell ref="A300:A301"/>
-    <mergeCell ref="B300:B301"/>
-    <mergeCell ref="C300:C301"/>
-    <mergeCell ref="D300:D301"/>
-    <mergeCell ref="E300:E301"/>
-    <mergeCell ref="F300:F301"/>
-    <mergeCell ref="E294:E295"/>
-    <mergeCell ref="F294:F295"/>
-    <mergeCell ref="A296:A297"/>
-    <mergeCell ref="B296:B297"/>
-    <mergeCell ref="C296:C297"/>
-    <mergeCell ref="D296:D297"/>
-    <mergeCell ref="E296:E297"/>
-    <mergeCell ref="F296:F297"/>
-    <mergeCell ref="E287:E288"/>
-    <mergeCell ref="F287:F288"/>
-    <mergeCell ref="A289:A290"/>
-    <mergeCell ref="B289:B290"/>
-    <mergeCell ref="C289:C290"/>
-    <mergeCell ref="D289:D290"/>
-    <mergeCell ref="E289:E290"/>
-    <mergeCell ref="F289:F290"/>
-    <mergeCell ref="E283:E284"/>
-    <mergeCell ref="F283:F284"/>
-    <mergeCell ref="A285:A286"/>
-    <mergeCell ref="B285:B286"/>
-    <mergeCell ref="C285:C286"/>
-    <mergeCell ref="D285:D286"/>
-    <mergeCell ref="E285:E286"/>
-    <mergeCell ref="F285:F286"/>
-    <mergeCell ref="E278:E279"/>
-    <mergeCell ref="F278:F279"/>
-    <mergeCell ref="A280:A281"/>
-    <mergeCell ref="B280:B281"/>
-    <mergeCell ref="C280:C281"/>
-    <mergeCell ref="D280:D281"/>
-    <mergeCell ref="E280:E281"/>
-    <mergeCell ref="F280:F281"/>
-    <mergeCell ref="E269:E270"/>
-    <mergeCell ref="F269:F270"/>
-    <mergeCell ref="A271:A272"/>
-    <mergeCell ref="B271:B272"/>
-    <mergeCell ref="C271:C272"/>
-    <mergeCell ref="D271:D272"/>
-    <mergeCell ref="E271:E272"/>
-    <mergeCell ref="F271:F272"/>
-    <mergeCell ref="E259:E260"/>
-    <mergeCell ref="F259:F260"/>
-    <mergeCell ref="A265:A266"/>
-    <mergeCell ref="B265:B266"/>
-    <mergeCell ref="C265:C266"/>
-    <mergeCell ref="D265:D266"/>
-    <mergeCell ref="E265:E266"/>
-    <mergeCell ref="F265:F266"/>
-    <mergeCell ref="E248:E249"/>
-    <mergeCell ref="F248:F249"/>
-    <mergeCell ref="A256:A257"/>
-    <mergeCell ref="B256:B257"/>
-    <mergeCell ref="C256:C257"/>
-    <mergeCell ref="D256:D257"/>
-    <mergeCell ref="E256:E257"/>
-    <mergeCell ref="F256:F257"/>
-    <mergeCell ref="E236:E237"/>
-    <mergeCell ref="F236:F237"/>
-    <mergeCell ref="A238:A239"/>
-    <mergeCell ref="B238:B239"/>
-    <mergeCell ref="C238:C239"/>
-    <mergeCell ref="D238:D239"/>
-    <mergeCell ref="E238:E239"/>
-    <mergeCell ref="F238:F239"/>
-    <mergeCell ref="E223:E224"/>
-    <mergeCell ref="F223:F224"/>
-    <mergeCell ref="A227:A228"/>
-    <mergeCell ref="B227:B228"/>
-    <mergeCell ref="C227:C228"/>
-    <mergeCell ref="D227:D228"/>
-    <mergeCell ref="E227:E228"/>
-    <mergeCell ref="F227:F228"/>
-    <mergeCell ref="E206:E207"/>
-    <mergeCell ref="F206:F207"/>
-    <mergeCell ref="A212:A213"/>
-    <mergeCell ref="B212:B213"/>
-    <mergeCell ref="C212:C213"/>
-    <mergeCell ref="D212:D213"/>
-    <mergeCell ref="E212:E213"/>
-    <mergeCell ref="F212:F213"/>
-    <mergeCell ref="E198:E199"/>
-    <mergeCell ref="F198:F199"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="B202:B203"/>
-    <mergeCell ref="C202:C203"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="E202:E203"/>
-    <mergeCell ref="F202:F203"/>
-    <mergeCell ref="E191:E192"/>
-    <mergeCell ref="F191:F192"/>
-    <mergeCell ref="A195:A196"/>
-    <mergeCell ref="B195:B196"/>
-    <mergeCell ref="C195:C196"/>
-    <mergeCell ref="D195:D196"/>
-    <mergeCell ref="E195:E196"/>
-    <mergeCell ref="F195:F196"/>
-    <mergeCell ref="E170:E171"/>
-    <mergeCell ref="F170:F171"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="C187:C188"/>
-    <mergeCell ref="D187:D188"/>
-    <mergeCell ref="E187:E188"/>
-    <mergeCell ref="F187:F188"/>
-    <mergeCell ref="E165:E166"/>
-    <mergeCell ref="F165:F166"/>
-    <mergeCell ref="A167:A168"/>
-    <mergeCell ref="B167:B168"/>
-    <mergeCell ref="C167:C168"/>
-    <mergeCell ref="D167:D168"/>
-    <mergeCell ref="E167:E168"/>
-    <mergeCell ref="F167:F168"/>
-    <mergeCell ref="E157:E158"/>
-    <mergeCell ref="F157:F158"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="D160:D161"/>
-    <mergeCell ref="E160:E161"/>
-    <mergeCell ref="F160:F161"/>
-    <mergeCell ref="E153:E154"/>
-    <mergeCell ref="F153:F154"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="C155:C156"/>
-    <mergeCell ref="D155:D156"/>
-    <mergeCell ref="E155:E156"/>
-    <mergeCell ref="F155:F156"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="F147:F148"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="D149:D150"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="F149:F150"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="F136:F137"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A426:A427"/>
+    <mergeCell ref="B426:B427"/>
+    <mergeCell ref="C426:C427"/>
+    <mergeCell ref="D426:D427"/>
+    <mergeCell ref="A420:A421"/>
+    <mergeCell ref="B420:B421"/>
+    <mergeCell ref="C420:C421"/>
+    <mergeCell ref="D420:D421"/>
+    <mergeCell ref="E439:E440"/>
+    <mergeCell ref="F439:F440"/>
+    <mergeCell ref="E432:E433"/>
+    <mergeCell ref="F432:F433"/>
+    <mergeCell ref="A435:A436"/>
+    <mergeCell ref="B435:B436"/>
+    <mergeCell ref="C435:C436"/>
+    <mergeCell ref="D435:D436"/>
+    <mergeCell ref="E435:E436"/>
+    <mergeCell ref="F435:F436"/>
     <mergeCell ref="A439:A440"/>
     <mergeCell ref="B439:B440"/>
     <mergeCell ref="C439:C440"/>
@@ -13049,198 +13241,6 @@
     <mergeCell ref="B432:B433"/>
     <mergeCell ref="C432:C433"/>
     <mergeCell ref="D432:D433"/>
-    <mergeCell ref="A426:A427"/>
-    <mergeCell ref="B426:B427"/>
-    <mergeCell ref="C426:C427"/>
-    <mergeCell ref="D426:D427"/>
-    <mergeCell ref="A420:A421"/>
-    <mergeCell ref="B420:B421"/>
-    <mergeCell ref="C420:C421"/>
-    <mergeCell ref="D420:D421"/>
-    <mergeCell ref="A414:A415"/>
-    <mergeCell ref="B414:B415"/>
-    <mergeCell ref="C414:C415"/>
-    <mergeCell ref="D414:D415"/>
-    <mergeCell ref="A409:A410"/>
-    <mergeCell ref="B409:B410"/>
-    <mergeCell ref="C409:C410"/>
-    <mergeCell ref="D409:D410"/>
-    <mergeCell ref="E409:E410"/>
-    <mergeCell ref="F409:F410"/>
-    <mergeCell ref="A403:A404"/>
-    <mergeCell ref="B403:B404"/>
-    <mergeCell ref="C403:C404"/>
-    <mergeCell ref="D403:D404"/>
-    <mergeCell ref="A401:A402"/>
-    <mergeCell ref="B401:B402"/>
-    <mergeCell ref="C401:C402"/>
-    <mergeCell ref="D401:D402"/>
-    <mergeCell ref="E401:E402"/>
-    <mergeCell ref="F401:F402"/>
-    <mergeCell ref="A390:A391"/>
-    <mergeCell ref="B390:B391"/>
-    <mergeCell ref="C390:C391"/>
-    <mergeCell ref="D390:D391"/>
-    <mergeCell ref="E390:E391"/>
-    <mergeCell ref="F390:F391"/>
-    <mergeCell ref="A385:A386"/>
-    <mergeCell ref="B385:B386"/>
-    <mergeCell ref="C385:C386"/>
-    <mergeCell ref="D385:D386"/>
-    <mergeCell ref="A383:A384"/>
-    <mergeCell ref="B383:B384"/>
-    <mergeCell ref="C383:C384"/>
-    <mergeCell ref="D383:D384"/>
-    <mergeCell ref="E383:E384"/>
-    <mergeCell ref="F383:F384"/>
-    <mergeCell ref="C339:C340"/>
-    <mergeCell ref="D339:D340"/>
-    <mergeCell ref="C332:C333"/>
-    <mergeCell ref="D332:D333"/>
-    <mergeCell ref="C326:C327"/>
-    <mergeCell ref="D326:D327"/>
-    <mergeCell ref="C314:C315"/>
-    <mergeCell ref="D314:D315"/>
-    <mergeCell ref="C308:C309"/>
-    <mergeCell ref="D308:D309"/>
-    <mergeCell ref="C302:C303"/>
-    <mergeCell ref="D302:D303"/>
-    <mergeCell ref="C298:C299"/>
-    <mergeCell ref="D298:D299"/>
-    <mergeCell ref="C294:C295"/>
-    <mergeCell ref="D294:D295"/>
-    <mergeCell ref="C287:C288"/>
-    <mergeCell ref="D287:D288"/>
-    <mergeCell ref="C283:C284"/>
-    <mergeCell ref="D283:D284"/>
-    <mergeCell ref="C278:C279"/>
-    <mergeCell ref="D278:D279"/>
-    <mergeCell ref="C269:C270"/>
-    <mergeCell ref="D269:D270"/>
-    <mergeCell ref="C259:C260"/>
-    <mergeCell ref="D259:D260"/>
-    <mergeCell ref="C248:C249"/>
-    <mergeCell ref="D248:D249"/>
-    <mergeCell ref="C236:C237"/>
-    <mergeCell ref="D236:D237"/>
-    <mergeCell ref="C223:C224"/>
-    <mergeCell ref="D223:D224"/>
-    <mergeCell ref="C206:C207"/>
-    <mergeCell ref="D206:D207"/>
-    <mergeCell ref="C198:C199"/>
-    <mergeCell ref="D198:D199"/>
-    <mergeCell ref="C191:C192"/>
-    <mergeCell ref="D191:D192"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="D170:D171"/>
-    <mergeCell ref="C165:C166"/>
-    <mergeCell ref="D165:D166"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="D157:D158"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="D153:D154"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="D147:D148"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A332:A333"/>
-    <mergeCell ref="B332:B333"/>
-    <mergeCell ref="A339:A340"/>
-    <mergeCell ref="B339:B340"/>
-    <mergeCell ref="A326:A327"/>
-    <mergeCell ref="B326:B327"/>
-    <mergeCell ref="A308:A309"/>
-    <mergeCell ref="B308:B309"/>
-    <mergeCell ref="A314:A315"/>
-    <mergeCell ref="B314:B315"/>
-    <mergeCell ref="A298:A299"/>
-    <mergeCell ref="B298:B299"/>
-    <mergeCell ref="A302:A303"/>
-    <mergeCell ref="B302:B303"/>
-    <mergeCell ref="A294:A295"/>
-    <mergeCell ref="B294:B295"/>
-    <mergeCell ref="A283:A284"/>
-    <mergeCell ref="B283:B284"/>
-    <mergeCell ref="A287:A288"/>
-    <mergeCell ref="B287:B288"/>
-    <mergeCell ref="A278:A279"/>
-    <mergeCell ref="B278:B279"/>
-    <mergeCell ref="A269:A270"/>
-    <mergeCell ref="B269:B270"/>
-    <mergeCell ref="A248:A249"/>
-    <mergeCell ref="B248:B249"/>
-    <mergeCell ref="A259:A260"/>
-    <mergeCell ref="B259:B260"/>
-    <mergeCell ref="A236:A237"/>
-    <mergeCell ref="B236:B237"/>
-    <mergeCell ref="A206:A207"/>
-    <mergeCell ref="B206:B207"/>
-    <mergeCell ref="A223:A224"/>
-    <mergeCell ref="B223:B224"/>
-    <mergeCell ref="A198:A199"/>
-    <mergeCell ref="B198:B199"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="B191:B192"/>
-    <mergeCell ref="A165:A166"/>
-    <mergeCell ref="B165:B166"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
